--- a/TCS_NEWUI_SavedSearchList.xlsx
+++ b/TCS_NEWUI_SavedSearchList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumitr\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9A838A-47A0-4AEC-B0CC-A030387E8767}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C0946F-8FFA-4631-A163-032B57A09C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2617,6 +2617,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2652,15 +2661,6 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="156">
@@ -5606,9 +5606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14479089-7CD9-4D53-9264-25F770CD02CB}">
   <dimension ref="A1:H967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D246" sqref="D246"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -6273,10 +6271,10 @@
       </c>
       <c r="D2"/>
       <c r="E2" s="25"/>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="98"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="25"/>
@@ -6333,10 +6331,10 @@
       <c r="C6" s="27"/>
       <c r="D6"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="97"/>
+      <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="25"/>
@@ -6467,37 +6465,37 @@
       <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="98"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
     </row>
     <row r="17" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
     </row>
     <row r="18" spans="1:7" s="48" customFormat="1">
       <c r="A18" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="100" t="s">
+      <c r="B18" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="90"/>
       <c r="F18" s="50" t="s">
         <v>48</v>
       </c>
@@ -6510,14 +6508,14 @@
       <c r="A19" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="90"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
     </row>
     <row r="20" spans="1:7" s="48" customFormat="1">
       <c r="A20" s="53" t="s">
@@ -6599,23 +6597,23 @@
       <c r="A24" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
     </row>
     <row r="25" spans="1:7" customFormat="1">
       <c r="A25" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="90"/>
       <c r="F25" s="50" t="s">
         <v>48</v>
       </c>
@@ -6628,14 +6626,14 @@
       <c r="A26" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="90"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="93"/>
     </row>
     <row r="27" spans="1:7" customFormat="1">
       <c r="A27" s="53" t="s">
@@ -6821,23 +6819,23 @@
       <c r="A37" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="91"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="92"/>
-      <c r="G37" s="93"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="96"/>
     </row>
     <row r="38" spans="1:7" customFormat="1">
       <c r="A38" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="102"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="90"/>
       <c r="F38" s="50" t="s">
         <v>48</v>
       </c>
@@ -6850,14 +6848,14 @@
       <c r="A39" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="90"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="93"/>
     </row>
     <row r="40" spans="1:7" customFormat="1">
       <c r="A40" s="53" t="s">
@@ -6973,23 +6971,23 @@
       <c r="A46" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="93"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="95"/>
+      <c r="G46" s="96"/>
     </row>
     <row r="47" spans="1:7" customFormat="1">
       <c r="A47" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="100" t="s">
+      <c r="B47" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="102"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="90"/>
       <c r="F47" s="50" t="s">
         <v>48</v>
       </c>
@@ -7002,14 +7000,14 @@
       <c r="A48" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="88" t="s">
+      <c r="B48" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="90"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="93"/>
     </row>
     <row r="49" spans="1:7" customFormat="1">
       <c r="A49" s="53" t="s">
@@ -7125,23 +7123,23 @@
       <c r="A55" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="91"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="93"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="96"/>
     </row>
     <row r="56" spans="1:7" customFormat="1">
       <c r="A56" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B56" s="100" t="s">
+      <c r="B56" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="102"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="90"/>
       <c r="F56" s="50" t="s">
         <v>48</v>
       </c>
@@ -7154,14 +7152,14 @@
       <c r="A57" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-      <c r="G57" s="90"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="93"/>
     </row>
     <row r="58" spans="1:7" customFormat="1">
       <c r="A58" s="53" t="s">
@@ -7294,23 +7292,23 @@
       <c r="A65" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="91"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="92"/>
-      <c r="G65" s="93"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="95"/>
+      <c r="G65" s="96"/>
     </row>
     <row r="66" spans="1:7" customFormat="1">
       <c r="A66" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="100" t="s">
+      <c r="B66" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="101"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="102"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="90"/>
       <c r="F66" s="50" t="s">
         <v>48</v>
       </c>
@@ -7323,14 +7321,14 @@
       <c r="A67" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="88" t="s">
+      <c r="B67" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="90"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="93"/>
     </row>
     <row r="68" spans="1:7" customFormat="1">
       <c r="A68" s="53" t="s">
@@ -7431,23 +7429,23 @@
       <c r="A73" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="91"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="93"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="95"/>
+      <c r="G73" s="96"/>
     </row>
     <row r="74" spans="1:7" customFormat="1">
       <c r="A74" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="100" t="s">
+      <c r="B74" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="101"/>
-      <c r="D74" s="101"/>
-      <c r="E74" s="102"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="90"/>
       <c r="F74" s="50" t="s">
         <v>48</v>
       </c>
@@ -7460,14 +7458,14 @@
       <c r="A75" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="91" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="89"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="90"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="93"/>
     </row>
     <row r="76" spans="1:7" customFormat="1">
       <c r="A76" s="53" t="s">
@@ -7600,23 +7598,23 @@
       <c r="A83" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="91"/>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="93"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="95"/>
+      <c r="E83" s="95"/>
+      <c r="F83" s="95"/>
+      <c r="G83" s="96"/>
     </row>
     <row r="84" spans="1:7" customFormat="1">
       <c r="A84" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B84" s="100" t="s">
+      <c r="B84" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="C84" s="101"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="102"/>
+      <c r="C84" s="89"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="90"/>
       <c r="F84" s="50" t="s">
         <v>48</v>
       </c>
@@ -7629,14 +7627,14 @@
       <c r="A85" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B85" s="88" t="s">
+      <c r="B85" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="89"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="89"/>
-      <c r="F85" s="89"/>
-      <c r="G85" s="90"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="93"/>
     </row>
     <row r="86" spans="1:7" customFormat="1">
       <c r="A86" s="53" t="s">
@@ -7752,23 +7750,23 @@
       <c r="A92" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B92" s="91"/>
-      <c r="C92" s="92"/>
-      <c r="D92" s="92"/>
-      <c r="E92" s="92"/>
-      <c r="F92" s="92"/>
-      <c r="G92" s="93"/>
+      <c r="B92" s="94"/>
+      <c r="C92" s="95"/>
+      <c r="D92" s="95"/>
+      <c r="E92" s="95"/>
+      <c r="F92" s="95"/>
+      <c r="G92" s="96"/>
     </row>
     <row r="93" spans="1:7" customFormat="1">
       <c r="A93" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B93" s="100" t="s">
+      <c r="B93" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="C93" s="101"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="102"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="90"/>
       <c r="F93" s="50" t="s">
         <v>48</v>
       </c>
@@ -7781,14 +7779,14 @@
       <c r="A94" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B94" s="88" t="s">
+      <c r="B94" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="C94" s="89"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="89"/>
-      <c r="F94" s="89"/>
-      <c r="G94" s="90"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="93"/>
     </row>
     <row r="95" spans="1:7" customFormat="1">
       <c r="A95" s="53" t="s">
@@ -7870,23 +7868,23 @@
       <c r="A99" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B99" s="91"/>
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="93"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="95"/>
+      <c r="D99" s="95"/>
+      <c r="E99" s="95"/>
+      <c r="F99" s="95"/>
+      <c r="G99" s="96"/>
     </row>
     <row r="100" spans="1:7" customFormat="1">
       <c r="A100" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B100" s="100" t="s">
+      <c r="B100" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="C100" s="101"/>
-      <c r="D100" s="101"/>
-      <c r="E100" s="102"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="90"/>
       <c r="F100" s="50" t="s">
         <v>48</v>
       </c>
@@ -7899,14 +7897,14 @@
       <c r="A101" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B101" s="88" t="s">
+      <c r="B101" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="89"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="89"/>
-      <c r="G101" s="90"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="93"/>
     </row>
     <row r="102" spans="1:7" customFormat="1">
       <c r="A102" s="53" t="s">
@@ -8056,23 +8054,23 @@
       <c r="A110" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B110" s="91"/>
-      <c r="C110" s="92"/>
-      <c r="D110" s="92"/>
-      <c r="E110" s="92"/>
-      <c r="F110" s="92"/>
-      <c r="G110" s="93"/>
+      <c r="B110" s="94"/>
+      <c r="C110" s="95"/>
+      <c r="D110" s="95"/>
+      <c r="E110" s="95"/>
+      <c r="F110" s="95"/>
+      <c r="G110" s="96"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B111" s="100" t="s">
+      <c r="B111" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C111" s="101"/>
-      <c r="D111" s="101"/>
-      <c r="E111" s="102"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="90"/>
       <c r="F111" s="50" t="s">
         <v>48</v>
       </c>
@@ -8085,14 +8083,14 @@
       <c r="A112" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B112" s="88" t="s">
+      <c r="B112" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C112" s="89"/>
-      <c r="D112" s="89"/>
-      <c r="E112" s="89"/>
-      <c r="F112" s="89"/>
-      <c r="G112" s="90"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="92"/>
+      <c r="E112" s="92"/>
+      <c r="F112" s="92"/>
+      <c r="G112" s="93"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="53" t="s">
@@ -8276,23 +8274,23 @@
       <c r="A123" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B123" s="91"/>
-      <c r="C123" s="92"/>
-      <c r="D123" s="92"/>
-      <c r="E123" s="92"/>
-      <c r="F123" s="92"/>
-      <c r="G123" s="93"/>
+      <c r="B123" s="94"/>
+      <c r="C123" s="95"/>
+      <c r="D123" s="95"/>
+      <c r="E123" s="95"/>
+      <c r="F123" s="95"/>
+      <c r="G123" s="96"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="100" t="s">
+      <c r="B124" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="C124" s="101"/>
-      <c r="D124" s="101"/>
-      <c r="E124" s="102"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="89"/>
+      <c r="E124" s="90"/>
       <c r="F124" s="50" t="s">
         <v>48</v>
       </c>
@@ -8305,14 +8303,14 @@
       <c r="A125" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B125" s="88" t="s">
+      <c r="B125" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="89"/>
-      <c r="D125" s="89"/>
-      <c r="E125" s="89"/>
-      <c r="F125" s="89"/>
-      <c r="G125" s="90"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="92"/>
+      <c r="G125" s="93"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="53" t="s">
@@ -8497,23 +8495,23 @@
       <c r="A136" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="91"/>
-      <c r="C136" s="92"/>
-      <c r="D136" s="92"/>
-      <c r="E136" s="92"/>
-      <c r="F136" s="92"/>
-      <c r="G136" s="93"/>
+      <c r="B136" s="94"/>
+      <c r="C136" s="95"/>
+      <c r="D136" s="95"/>
+      <c r="E136" s="95"/>
+      <c r="F136" s="95"/>
+      <c r="G136" s="96"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B137" s="100" t="s">
+      <c r="B137" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C137" s="101"/>
-      <c r="D137" s="101"/>
-      <c r="E137" s="102"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="89"/>
+      <c r="E137" s="90"/>
       <c r="F137" s="50" t="s">
         <v>48</v>
       </c>
@@ -8526,14 +8524,14 @@
       <c r="A138" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B138" s="88" t="s">
+      <c r="B138" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="89"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="89"/>
-      <c r="G138" s="90"/>
+      <c r="C138" s="92"/>
+      <c r="D138" s="92"/>
+      <c r="E138" s="92"/>
+      <c r="F138" s="92"/>
+      <c r="G138" s="93"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="53" t="s">
@@ -8702,23 +8700,23 @@
       <c r="A148" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B148" s="91"/>
-      <c r="C148" s="92"/>
-      <c r="D148" s="92"/>
-      <c r="E148" s="92"/>
-      <c r="F148" s="92"/>
-      <c r="G148" s="93"/>
+      <c r="B148" s="94"/>
+      <c r="C148" s="95"/>
+      <c r="D148" s="95"/>
+      <c r="E148" s="95"/>
+      <c r="F148" s="95"/>
+      <c r="G148" s="96"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="100" t="s">
+      <c r="B149" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="C149" s="101"/>
-      <c r="D149" s="101"/>
-      <c r="E149" s="102"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="89"/>
+      <c r="E149" s="90"/>
       <c r="F149" s="50" t="s">
         <v>48</v>
       </c>
@@ -8731,14 +8729,14 @@
       <c r="A150" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B150" s="88" t="s">
+      <c r="B150" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C150" s="89"/>
-      <c r="D150" s="89"/>
-      <c r="E150" s="89"/>
-      <c r="F150" s="89"/>
-      <c r="G150" s="90"/>
+      <c r="C150" s="92"/>
+      <c r="D150" s="92"/>
+      <c r="E150" s="92"/>
+      <c r="F150" s="92"/>
+      <c r="G150" s="93"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="53" t="s">
@@ -8871,23 +8869,23 @@
       <c r="A158" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B158" s="91"/>
-      <c r="C158" s="92"/>
-      <c r="D158" s="92"/>
-      <c r="E158" s="92"/>
-      <c r="F158" s="92"/>
-      <c r="G158" s="93"/>
+      <c r="B158" s="94"/>
+      <c r="C158" s="95"/>
+      <c r="D158" s="95"/>
+      <c r="E158" s="95"/>
+      <c r="F158" s="95"/>
+      <c r="G158" s="96"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B159" s="100" t="s">
+      <c r="B159" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="101"/>
-      <c r="D159" s="101"/>
-      <c r="E159" s="102"/>
+      <c r="C159" s="89"/>
+      <c r="D159" s="89"/>
+      <c r="E159" s="90"/>
       <c r="F159" s="50" t="s">
         <v>48</v>
       </c>
@@ -8900,14 +8898,14 @@
       <c r="A160" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B160" s="88" t="s">
+      <c r="B160" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C160" s="89"/>
-      <c r="D160" s="89"/>
-      <c r="E160" s="89"/>
-      <c r="F160" s="89"/>
-      <c r="G160" s="90"/>
+      <c r="C160" s="92"/>
+      <c r="D160" s="92"/>
+      <c r="E160" s="92"/>
+      <c r="F160" s="92"/>
+      <c r="G160" s="93"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="53" t="s">
@@ -9025,27 +9023,27 @@
       <c r="A167" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B167" s="91"/>
-      <c r="C167" s="92"/>
-      <c r="D167" s="92"/>
-      <c r="E167" s="92"/>
-      <c r="F167" s="92"/>
-      <c r="G167" s="93"/>
+      <c r="B167" s="94"/>
+      <c r="C167" s="95"/>
+      <c r="D167" s="95"/>
+      <c r="E167" s="95"/>
+      <c r="F167" s="95"/>
+      <c r="G167" s="96"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="B168" s="100" t="s">
+      <c r="B168" s="88" t="s">
         <v>176</v>
       </c>
-      <c r="C168" s="101" t="s">
+      <c r="C168" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="D168" s="101" t="s">
+      <c r="D168" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="E168" s="102" t="s">
+      <c r="E168" s="90" t="s">
         <v>176</v>
       </c>
       <c r="F168" s="50" t="s">
@@ -9060,14 +9058,14 @@
       <c r="A169" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B169" s="88" t="s">
+      <c r="B169" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C169" s="89"/>
-      <c r="D169" s="89"/>
-      <c r="E169" s="89"/>
-      <c r="F169" s="89"/>
-      <c r="G169" s="90"/>
+      <c r="C169" s="92"/>
+      <c r="D169" s="92"/>
+      <c r="E169" s="92"/>
+      <c r="F169" s="92"/>
+      <c r="G169" s="93"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="53" t="s">
@@ -9130,27 +9128,27 @@
       <c r="A173" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B173" s="91"/>
-      <c r="C173" s="92"/>
-      <c r="D173" s="92"/>
-      <c r="E173" s="92"/>
-      <c r="F173" s="92"/>
-      <c r="G173" s="93"/>
+      <c r="B173" s="94"/>
+      <c r="C173" s="95"/>
+      <c r="D173" s="95"/>
+      <c r="E173" s="95"/>
+      <c r="F173" s="95"/>
+      <c r="G173" s="96"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="B174" s="100" t="s">
+      <c r="B174" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="C174" s="101" t="s">
+      <c r="C174" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="D174" s="101" t="s">
+      <c r="D174" s="89" t="s">
         <v>177</v>
       </c>
-      <c r="E174" s="102" t="s">
+      <c r="E174" s="90" t="s">
         <v>177</v>
       </c>
       <c r="F174" s="50" t="s">
@@ -9165,14 +9163,14 @@
       <c r="A175" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B175" s="88" t="s">
+      <c r="B175" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="C175" s="89"/>
-      <c r="D175" s="89"/>
-      <c r="E175" s="89"/>
-      <c r="F175" s="89"/>
-      <c r="G175" s="90"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="92"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="92"/>
+      <c r="G175" s="93"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="53" t="s">
@@ -9269,27 +9267,27 @@
       <c r="A181" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B181" s="91"/>
-      <c r="C181" s="92"/>
-      <c r="D181" s="92"/>
-      <c r="E181" s="92"/>
-      <c r="F181" s="92"/>
-      <c r="G181" s="93"/>
+      <c r="B181" s="94"/>
+      <c r="C181" s="95"/>
+      <c r="D181" s="95"/>
+      <c r="E181" s="95"/>
+      <c r="F181" s="95"/>
+      <c r="G181" s="96"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="B182" s="100" t="s">
+      <c r="B182" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="101" t="s">
+      <c r="C182" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="D182" s="101" t="s">
+      <c r="D182" s="89" t="s">
         <v>178</v>
       </c>
-      <c r="E182" s="102" t="s">
+      <c r="E182" s="90" t="s">
         <v>178</v>
       </c>
       <c r="F182" s="50" t="s">
@@ -9304,14 +9302,14 @@
       <c r="A183" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B183" s="88" t="s">
+      <c r="B183" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="C183" s="89"/>
-      <c r="D183" s="89"/>
-      <c r="E183" s="89"/>
-      <c r="F183" s="89"/>
-      <c r="G183" s="90"/>
+      <c r="C183" s="92"/>
+      <c r="D183" s="92"/>
+      <c r="E183" s="92"/>
+      <c r="F183" s="92"/>
+      <c r="G183" s="93"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="53" t="s">
@@ -9408,27 +9406,27 @@
       <c r="A189" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B189" s="91"/>
-      <c r="C189" s="92"/>
-      <c r="D189" s="92"/>
-      <c r="E189" s="92"/>
-      <c r="F189" s="92"/>
-      <c r="G189" s="93"/>
+      <c r="B189" s="94"/>
+      <c r="C189" s="95"/>
+      <c r="D189" s="95"/>
+      <c r="E189" s="95"/>
+      <c r="F189" s="95"/>
+      <c r="G189" s="96"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="B190" s="100" t="s">
+      <c r="B190" s="88" t="s">
         <v>179</v>
       </c>
-      <c r="C190" s="101" t="s">
+      <c r="C190" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="D190" s="101" t="s">
+      <c r="D190" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="E190" s="102" t="s">
+      <c r="E190" s="90" t="s">
         <v>179</v>
       </c>
       <c r="F190" s="50" t="s">
@@ -9443,14 +9441,14 @@
       <c r="A191" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B191" s="88" t="s">
+      <c r="B191" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="C191" s="89"/>
-      <c r="D191" s="89"/>
-      <c r="E191" s="89"/>
-      <c r="F191" s="89"/>
-      <c r="G191" s="90"/>
+      <c r="C191" s="92"/>
+      <c r="D191" s="92"/>
+      <c r="E191" s="92"/>
+      <c r="F191" s="92"/>
+      <c r="G191" s="93"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="53" t="s">
@@ -9547,27 +9545,27 @@
       <c r="A197" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B197" s="91"/>
-      <c r="C197" s="92"/>
-      <c r="D197" s="92"/>
-      <c r="E197" s="92"/>
-      <c r="F197" s="92"/>
-      <c r="G197" s="93"/>
+      <c r="B197" s="94"/>
+      <c r="C197" s="95"/>
+      <c r="D197" s="95"/>
+      <c r="E197" s="95"/>
+      <c r="F197" s="95"/>
+      <c r="G197" s="96"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="B198" s="100" t="s">
+      <c r="B198" s="88" t="s">
         <v>224</v>
       </c>
-      <c r="C198" s="101" t="s">
+      <c r="C198" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="D198" s="101" t="s">
+      <c r="D198" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="E198" s="102" t="s">
+      <c r="E198" s="90" t="s">
         <v>181</v>
       </c>
       <c r="F198" s="50" t="s">
@@ -9582,14 +9580,14 @@
       <c r="A199" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B199" s="88" t="s">
+      <c r="B199" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="C199" s="89"/>
-      <c r="D199" s="89"/>
-      <c r="E199" s="89"/>
-      <c r="F199" s="89"/>
-      <c r="G199" s="90"/>
+      <c r="C199" s="92"/>
+      <c r="D199" s="92"/>
+      <c r="E199" s="92"/>
+      <c r="F199" s="92"/>
+      <c r="G199" s="93"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="53" t="s">
@@ -9703,27 +9701,27 @@
       <c r="A206" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B206" s="91"/>
-      <c r="C206" s="92"/>
-      <c r="D206" s="92"/>
-      <c r="E206" s="92"/>
-      <c r="F206" s="92"/>
-      <c r="G206" s="93"/>
+      <c r="B206" s="94"/>
+      <c r="C206" s="95"/>
+      <c r="D206" s="95"/>
+      <c r="E206" s="95"/>
+      <c r="F206" s="95"/>
+      <c r="G206" s="96"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="B207" s="100" t="s">
+      <c r="B207" s="88" t="s">
         <v>181</v>
       </c>
-      <c r="C207" s="101" t="s">
+      <c r="C207" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="D207" s="101" t="s">
+      <c r="D207" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="E207" s="102" t="s">
+      <c r="E207" s="90" t="s">
         <v>181</v>
       </c>
       <c r="F207" s="50" t="s">
@@ -9738,14 +9736,14 @@
       <c r="A208" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B208" s="88" t="s">
+      <c r="B208" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="C208" s="89"/>
-      <c r="D208" s="89"/>
-      <c r="E208" s="89"/>
-      <c r="F208" s="89"/>
-      <c r="G208" s="90"/>
+      <c r="C208" s="92"/>
+      <c r="D208" s="92"/>
+      <c r="E208" s="92"/>
+      <c r="F208" s="92"/>
+      <c r="G208" s="93"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="53" t="s">
@@ -9842,27 +9840,27 @@
       <c r="A214" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B214" s="91"/>
-      <c r="C214" s="92"/>
-      <c r="D214" s="92"/>
-      <c r="E214" s="92"/>
-      <c r="F214" s="92"/>
-      <c r="G214" s="93"/>
+      <c r="B214" s="94"/>
+      <c r="C214" s="95"/>
+      <c r="D214" s="95"/>
+      <c r="E214" s="95"/>
+      <c r="F214" s="95"/>
+      <c r="G214" s="96"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="B215" s="100" t="s">
+      <c r="B215" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="C215" s="101" t="s">
+      <c r="C215" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="D215" s="101" t="s">
+      <c r="D215" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="E215" s="102" t="s">
+      <c r="E215" s="90" t="s">
         <v>180</v>
       </c>
       <c r="F215" s="50" t="s">
@@ -9877,14 +9875,14 @@
       <c r="A216" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B216" s="88" t="s">
+      <c r="B216" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="C216" s="89"/>
-      <c r="D216" s="89"/>
-      <c r="E216" s="89"/>
-      <c r="F216" s="89"/>
-      <c r="G216" s="90"/>
+      <c r="C216" s="92"/>
+      <c r="D216" s="92"/>
+      <c r="E216" s="92"/>
+      <c r="F216" s="92"/>
+      <c r="G216" s="93"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="53" t="s">
@@ -10015,27 +10013,27 @@
       <c r="A224" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B224" s="91"/>
-      <c r="C224" s="92"/>
-      <c r="D224" s="92"/>
-      <c r="E224" s="92"/>
-      <c r="F224" s="92"/>
-      <c r="G224" s="93"/>
+      <c r="B224" s="94"/>
+      <c r="C224" s="95"/>
+      <c r="D224" s="95"/>
+      <c r="E224" s="95"/>
+      <c r="F224" s="95"/>
+      <c r="G224" s="96"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="B225" s="100" t="s">
+      <c r="B225" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="C225" s="101" t="s">
+      <c r="C225" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="D225" s="101" t="s">
+      <c r="D225" s="89" t="s">
         <v>196</v>
       </c>
-      <c r="E225" s="102" t="s">
+      <c r="E225" s="90" t="s">
         <v>196</v>
       </c>
       <c r="F225" s="50" t="s">
@@ -10050,14 +10048,14 @@
       <c r="A226" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B226" s="88" t="s">
+      <c r="B226" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="C226" s="89"/>
-      <c r="D226" s="89"/>
-      <c r="E226" s="89"/>
-      <c r="F226" s="89"/>
-      <c r="G226" s="90"/>
+      <c r="C226" s="92"/>
+      <c r="D226" s="92"/>
+      <c r="E226" s="92"/>
+      <c r="F226" s="92"/>
+      <c r="G226" s="93"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="53" t="s">
@@ -10152,27 +10150,27 @@
       <c r="A234" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B234" s="91"/>
-      <c r="C234" s="92"/>
-      <c r="D234" s="92"/>
-      <c r="E234" s="92"/>
-      <c r="F234" s="92"/>
-      <c r="G234" s="93"/>
+      <c r="B234" s="94"/>
+      <c r="C234" s="95"/>
+      <c r="D234" s="95"/>
+      <c r="E234" s="95"/>
+      <c r="F234" s="95"/>
+      <c r="G234" s="96"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="B235" s="100" t="s">
+      <c r="B235" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="C235" s="101" t="s">
+      <c r="C235" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="D235" s="101" t="s">
+      <c r="D235" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="E235" s="102" t="s">
+      <c r="E235" s="90" t="s">
         <v>182</v>
       </c>
       <c r="F235" s="50" t="s">
@@ -10187,14 +10185,14 @@
       <c r="A236" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B236" s="88" t="s">
+      <c r="B236" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="C236" s="89"/>
-      <c r="D236" s="89"/>
-      <c r="E236" s="89"/>
-      <c r="F236" s="89"/>
-      <c r="G236" s="90"/>
+      <c r="C236" s="92"/>
+      <c r="D236" s="92"/>
+      <c r="E236" s="92"/>
+      <c r="F236" s="92"/>
+      <c r="G236" s="93"/>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="53" t="s">
@@ -10291,27 +10289,27 @@
       <c r="A242" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B242" s="91"/>
-      <c r="C242" s="92"/>
-      <c r="D242" s="92"/>
-      <c r="E242" s="92"/>
-      <c r="F242" s="92"/>
-      <c r="G242" s="93"/>
+      <c r="B242" s="94"/>
+      <c r="C242" s="95"/>
+      <c r="D242" s="95"/>
+      <c r="E242" s="95"/>
+      <c r="F242" s="95"/>
+      <c r="G242" s="96"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="B243" s="100" t="s">
+      <c r="B243" s="88" t="s">
         <v>183</v>
       </c>
-      <c r="C243" s="101" t="s">
+      <c r="C243" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="D243" s="101" t="s">
+      <c r="D243" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="E243" s="102" t="s">
+      <c r="E243" s="90" t="s">
         <v>182</v>
       </c>
       <c r="F243" s="50" t="s">
@@ -10326,14 +10324,14 @@
       <c r="A244" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B244" s="88" t="s">
+      <c r="B244" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="C244" s="89"/>
-      <c r="D244" s="89"/>
-      <c r="E244" s="89"/>
-      <c r="F244" s="89"/>
-      <c r="G244" s="90"/>
+      <c r="C244" s="92"/>
+      <c r="D244" s="92"/>
+      <c r="E244" s="92"/>
+      <c r="F244" s="92"/>
+      <c r="G244" s="93"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="53" t="s">
@@ -10413,27 +10411,27 @@
       <c r="A249" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B249" s="91"/>
-      <c r="C249" s="92"/>
-      <c r="D249" s="92"/>
-      <c r="E249" s="92"/>
-      <c r="F249" s="92"/>
-      <c r="G249" s="93"/>
+      <c r="B249" s="94"/>
+      <c r="C249" s="95"/>
+      <c r="D249" s="95"/>
+      <c r="E249" s="95"/>
+      <c r="F249" s="95"/>
+      <c r="G249" s="96"/>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="B250" s="100" t="s">
+      <c r="B250" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="C250" s="101" t="s">
+      <c r="C250" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="D250" s="101" t="s">
+      <c r="D250" s="89" t="s">
         <v>195</v>
       </c>
-      <c r="E250" s="102" t="s">
+      <c r="E250" s="90" t="s">
         <v>195</v>
       </c>
       <c r="F250" s="50" t="s">
@@ -10448,14 +10446,14 @@
       <c r="A251" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B251" s="88" t="s">
+      <c r="B251" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="C251" s="89"/>
-      <c r="D251" s="89"/>
-      <c r="E251" s="89"/>
-      <c r="F251" s="89"/>
-      <c r="G251" s="90"/>
+      <c r="C251" s="92"/>
+      <c r="D251" s="92"/>
+      <c r="E251" s="92"/>
+      <c r="F251" s="92"/>
+      <c r="G251" s="93"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="53" t="s">
@@ -10535,12 +10533,12 @@
       <c r="A256" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B256" s="91"/>
-      <c r="C256" s="92"/>
-      <c r="D256" s="92"/>
-      <c r="E256" s="92"/>
-      <c r="F256" s="92"/>
-      <c r="G256" s="93"/>
+      <c r="B256" s="94"/>
+      <c r="C256" s="95"/>
+      <c r="D256" s="95"/>
+      <c r="E256" s="95"/>
+      <c r="F256" s="95"/>
+      <c r="G256" s="96"/>
     </row>
     <row r="257" spans="1:7">
       <c r="A257"/>
@@ -16940,6 +16938,80 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B197:G197"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="B214:G214"/>
+    <mergeCell ref="B215:E215"/>
+    <mergeCell ref="B216:G216"/>
+    <mergeCell ref="B224:G224"/>
+    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="B234:G234"/>
+    <mergeCell ref="B235:E235"/>
     <mergeCell ref="B250:E250"/>
     <mergeCell ref="B251:G251"/>
     <mergeCell ref="B256:G256"/>
@@ -16948,80 +17020,6 @@
     <mergeCell ref="B243:E243"/>
     <mergeCell ref="B244:G244"/>
     <mergeCell ref="B249:G249"/>
-    <mergeCell ref="B224:G224"/>
-    <mergeCell ref="B225:E225"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="B234:G234"/>
-    <mergeCell ref="B235:E235"/>
-    <mergeCell ref="B207:E207"/>
-    <mergeCell ref="B208:G208"/>
-    <mergeCell ref="B214:G214"/>
-    <mergeCell ref="B215:E215"/>
-    <mergeCell ref="B216:G216"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B197:G197"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B206:G206"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B167:G167"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F450:F452 F457:F463 F676:F678 F666:F671 F468:F477 F482:F485 F490:F495 F500:F508 F513:F522 F527:F537 F542:F552 F568:F574 F596:F598 F557:F563 F579:F585 F590:F591 F603:F609 F614:F620 F636:F638 F625:F631 F643:F646 F651:F653 F658:F661 F21:F23 F152:F157 F28:F36 F41:F45 F50:F54 F77:F82 F96:F98 F103:F109 F114:F122 F127:F135 F140:F147 F59:F64 F69:F72 F87:F91 F162:F166 F171:F172 F177:F180 F185:F188 F193:F196 F201:F205 F210:F213 F218:F223 F228:F233 F238:F241 F246:F248 F253:F255" xr:uid="{59CD337E-F2A3-4555-8531-BBD5B92517F1}">

--- a/TCS_NEWUI_SavedSearchList.xlsx
+++ b/TCS_NEWUI_SavedSearchList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C0946F-8FFA-4631-A163-032B57A09C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83CFB06-1724-44FD-8B85-7F5588823F4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="5" r:id="rId1"/>
@@ -2617,6 +2617,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="21" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="24" borderId="22" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="29" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="30" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" xfId="144" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2625,42 +2661,6 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="21" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="24" borderId="22" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="29" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="30" xfId="136" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="0" xfId="144" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="29" borderId="39" xfId="144" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="156">
@@ -4708,8 +4708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5606,7 +5606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14479089-7CD9-4D53-9264-25F770CD02CB}">
   <dimension ref="A1:H967"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
@@ -6271,10 +6271,10 @@
       </c>
       <c r="D2"/>
       <c r="E2" s="25"/>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="98"/>
+      <c r="G2" s="95"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="25"/>
@@ -6331,10 +6331,10 @@
       <c r="C6" s="27"/>
       <c r="D6"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="99" t="s">
+      <c r="F6" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="100"/>
+      <c r="G6" s="97"/>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" thickBot="1">
       <c r="A7" s="25"/>
@@ -6465,37 +6465,37 @@
       <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
     </row>
     <row r="17" spans="1:7" s="48" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A17" s="102" t="s">
+      <c r="A17" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
     </row>
     <row r="18" spans="1:7" s="48" customFormat="1">
       <c r="A18" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
       <c r="F18" s="50" t="s">
         <v>48</v>
       </c>
@@ -6508,14 +6508,14 @@
       <c r="A19" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="91" t="s">
+      <c r="B19" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="93"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="90"/>
     </row>
     <row r="20" spans="1:7" s="48" customFormat="1">
       <c r="A20" s="53" t="s">
@@ -6597,23 +6597,23 @@
       <c r="A24" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="96"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
     </row>
     <row r="25" spans="1:7" customFormat="1">
       <c r="A25" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="90"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
       <c r="F25" s="50" t="s">
         <v>48</v>
       </c>
@@ -6626,14 +6626,14 @@
       <c r="A26" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="93"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="90"/>
     </row>
     <row r="27" spans="1:7" customFormat="1">
       <c r="A27" s="53" t="s">
@@ -6819,23 +6819,23 @@
       <c r="A37" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="94"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="96"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="93"/>
     </row>
     <row r="38" spans="1:7" customFormat="1">
       <c r="A38" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="90"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="102"/>
       <c r="F38" s="50" t="s">
         <v>48</v>
       </c>
@@ -6848,14 +6848,14 @@
       <c r="A39" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="91" t="s">
+      <c r="B39" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="93"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
     </row>
     <row r="40" spans="1:7" customFormat="1">
       <c r="A40" s="53" t="s">
@@ -6971,23 +6971,23 @@
       <c r="A46" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="94"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="96"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="93"/>
     </row>
     <row r="47" spans="1:7" customFormat="1">
       <c r="A47" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="88" t="s">
+      <c r="B47" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="90"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="102"/>
       <c r="F47" s="50" t="s">
         <v>48</v>
       </c>
@@ -7000,14 +7000,14 @@
       <c r="A48" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="93"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="90"/>
     </row>
     <row r="49" spans="1:7" customFormat="1">
       <c r="A49" s="53" t="s">
@@ -7123,23 +7123,23 @@
       <c r="A55" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="94"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="96"/>
+      <c r="B55" s="91"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="93"/>
     </row>
     <row r="56" spans="1:7" customFormat="1">
       <c r="A56" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B56" s="88" t="s">
+      <c r="B56" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="90"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="101"/>
+      <c r="E56" s="102"/>
       <c r="F56" s="50" t="s">
         <v>48</v>
       </c>
@@ -7152,14 +7152,14 @@
       <c r="A57" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="91" t="s">
+      <c r="B57" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="93"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="90"/>
     </row>
     <row r="58" spans="1:7" customFormat="1">
       <c r="A58" s="53" t="s">
@@ -7292,23 +7292,23 @@
       <c r="A65" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="94"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="95"/>
-      <c r="E65" s="95"/>
-      <c r="F65" s="95"/>
-      <c r="G65" s="96"/>
+      <c r="B65" s="91"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="93"/>
     </row>
     <row r="66" spans="1:7" customFormat="1">
       <c r="A66" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B66" s="88" t="s">
+      <c r="B66" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="89"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="90"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="102"/>
       <c r="F66" s="50" t="s">
         <v>48</v>
       </c>
@@ -7321,14 +7321,14 @@
       <c r="A67" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="91" t="s">
+      <c r="B67" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="92"/>
-      <c r="G67" s="93"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="90"/>
     </row>
     <row r="68" spans="1:7" customFormat="1">
       <c r="A68" s="53" t="s">
@@ -7429,23 +7429,23 @@
       <c r="A73" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="94"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="95"/>
-      <c r="E73" s="95"/>
-      <c r="F73" s="95"/>
-      <c r="G73" s="96"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="93"/>
     </row>
     <row r="74" spans="1:7" customFormat="1">
       <c r="A74" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="88" t="s">
+      <c r="B74" s="100" t="s">
         <v>166</v>
       </c>
-      <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="90"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="102"/>
       <c r="F74" s="50" t="s">
         <v>48</v>
       </c>
@@ -7458,14 +7458,14 @@
       <c r="A75" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="91" t="s">
+      <c r="B75" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="93"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="90"/>
     </row>
     <row r="76" spans="1:7" customFormat="1">
       <c r="A76" s="53" t="s">
@@ -7598,23 +7598,23 @@
       <c r="A83" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="94"/>
-      <c r="C83" s="95"/>
-      <c r="D83" s="95"/>
-      <c r="E83" s="95"/>
-      <c r="F83" s="95"/>
-      <c r="G83" s="96"/>
+      <c r="B83" s="91"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="93"/>
     </row>
     <row r="84" spans="1:7" customFormat="1">
       <c r="A84" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="B84" s="88" t="s">
+      <c r="B84" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C84" s="89"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="90"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="102"/>
       <c r="F84" s="50" t="s">
         <v>48</v>
       </c>
@@ -7627,14 +7627,14 @@
       <c r="A85" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B85" s="91" t="s">
+      <c r="B85" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="92"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="92"/>
-      <c r="G85" s="93"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="89"/>
+      <c r="F85" s="89"/>
+      <c r="G85" s="90"/>
     </row>
     <row r="86" spans="1:7" customFormat="1">
       <c r="A86" s="53" t="s">
@@ -7750,23 +7750,23 @@
       <c r="A92" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B92" s="94"/>
-      <c r="C92" s="95"/>
-      <c r="D92" s="95"/>
-      <c r="E92" s="95"/>
-      <c r="F92" s="95"/>
-      <c r="G92" s="96"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="93"/>
     </row>
     <row r="93" spans="1:7" customFormat="1">
       <c r="A93" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="B93" s="88" t="s">
+      <c r="B93" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="C93" s="89"/>
-      <c r="D93" s="89"/>
-      <c r="E93" s="90"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="102"/>
       <c r="F93" s="50" t="s">
         <v>48</v>
       </c>
@@ -7779,14 +7779,14 @@
       <c r="A94" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B94" s="91" t="s">
+      <c r="B94" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="C94" s="92"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="92"/>
-      <c r="G94" s="93"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="89"/>
+      <c r="G94" s="90"/>
     </row>
     <row r="95" spans="1:7" customFormat="1">
       <c r="A95" s="53" t="s">
@@ -7868,23 +7868,23 @@
       <c r="A99" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B99" s="94"/>
-      <c r="C99" s="95"/>
-      <c r="D99" s="95"/>
-      <c r="E99" s="95"/>
-      <c r="F99" s="95"/>
-      <c r="G99" s="96"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="93"/>
     </row>
     <row r="100" spans="1:7" customFormat="1">
       <c r="A100" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B100" s="88" t="s">
+      <c r="B100" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C100" s="89"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="90"/>
+      <c r="C100" s="101"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="102"/>
       <c r="F100" s="50" t="s">
         <v>48</v>
       </c>
@@ -7897,14 +7897,14 @@
       <c r="A101" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B101" s="91" t="s">
+      <c r="B101" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="92"/>
-      <c r="D101" s="92"/>
-      <c r="E101" s="92"/>
-      <c r="F101" s="92"/>
-      <c r="G101" s="93"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="90"/>
     </row>
     <row r="102" spans="1:7" customFormat="1">
       <c r="A102" s="53" t="s">
@@ -8054,23 +8054,23 @@
       <c r="A110" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B110" s="94"/>
-      <c r="C110" s="95"/>
-      <c r="D110" s="95"/>
-      <c r="E110" s="95"/>
-      <c r="F110" s="95"/>
-      <c r="G110" s="96"/>
+      <c r="B110" s="91"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="92"/>
+      <c r="F110" s="92"/>
+      <c r="G110" s="93"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="B111" s="88" t="s">
+      <c r="B111" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="C111" s="89"/>
-      <c r="D111" s="89"/>
-      <c r="E111" s="90"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="101"/>
+      <c r="E111" s="102"/>
       <c r="F111" s="50" t="s">
         <v>48</v>
       </c>
@@ -8083,14 +8083,14 @@
       <c r="A112" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B112" s="91" t="s">
+      <c r="B112" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C112" s="92"/>
-      <c r="D112" s="92"/>
-      <c r="E112" s="92"/>
-      <c r="F112" s="92"/>
-      <c r="G112" s="93"/>
+      <c r="C112" s="89"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="89"/>
+      <c r="G112" s="90"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="53" t="s">
@@ -8274,23 +8274,23 @@
       <c r="A123" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B123" s="94"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
-      <c r="E123" s="95"/>
-      <c r="F123" s="95"/>
-      <c r="G123" s="96"/>
+      <c r="B123" s="91"/>
+      <c r="C123" s="92"/>
+      <c r="D123" s="92"/>
+      <c r="E123" s="92"/>
+      <c r="F123" s="92"/>
+      <c r="G123" s="93"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="88" t="s">
+      <c r="B124" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="C124" s="89"/>
-      <c r="D124" s="89"/>
-      <c r="E124" s="90"/>
+      <c r="C124" s="101"/>
+      <c r="D124" s="101"/>
+      <c r="E124" s="102"/>
       <c r="F124" s="50" t="s">
         <v>48</v>
       </c>
@@ -8303,14 +8303,14 @@
       <c r="A125" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B125" s="91" t="s">
+      <c r="B125" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="92"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="92"/>
-      <c r="F125" s="92"/>
-      <c r="G125" s="93"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="89"/>
+      <c r="E125" s="89"/>
+      <c r="F125" s="89"/>
+      <c r="G125" s="90"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="53" t="s">
@@ -8495,23 +8495,23 @@
       <c r="A136" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="94"/>
-      <c r="C136" s="95"/>
-      <c r="D136" s="95"/>
-      <c r="E136" s="95"/>
-      <c r="F136" s="95"/>
-      <c r="G136" s="96"/>
+      <c r="B136" s="91"/>
+      <c r="C136" s="92"/>
+      <c r="D136" s="92"/>
+      <c r="E136" s="92"/>
+      <c r="F136" s="92"/>
+      <c r="G136" s="93"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B137" s="88" t="s">
+      <c r="B137" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="C137" s="89"/>
-      <c r="D137" s="89"/>
-      <c r="E137" s="90"/>
+      <c r="C137" s="101"/>
+      <c r="D137" s="101"/>
+      <c r="E137" s="102"/>
       <c r="F137" s="50" t="s">
         <v>48</v>
       </c>
@@ -8524,14 +8524,14 @@
       <c r="A138" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B138" s="91" t="s">
+      <c r="B138" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="92"/>
-      <c r="D138" s="92"/>
-      <c r="E138" s="92"/>
-      <c r="F138" s="92"/>
-      <c r="G138" s="93"/>
+      <c r="C138" s="89"/>
+      <c r="D138" s="89"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="89"/>
+      <c r="G138" s="90"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="53" t="s">
@@ -8700,23 +8700,23 @@
       <c r="A148" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B148" s="94"/>
-      <c r="C148" s="95"/>
-      <c r="D148" s="95"/>
-      <c r="E148" s="95"/>
-      <c r="F148" s="95"/>
-      <c r="G148" s="96"/>
+      <c r="B148" s="91"/>
+      <c r="C148" s="92"/>
+      <c r="D148" s="92"/>
+      <c r="E148" s="92"/>
+      <c r="F148" s="92"/>
+      <c r="G148" s="93"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="88" t="s">
+      <c r="B149" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="C149" s="89"/>
-      <c r="D149" s="89"/>
-      <c r="E149" s="90"/>
+      <c r="C149" s="101"/>
+      <c r="D149" s="101"/>
+      <c r="E149" s="102"/>
       <c r="F149" s="50" t="s">
         <v>48</v>
       </c>
@@ -8729,14 +8729,14 @@
       <c r="A150" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B150" s="91" t="s">
+      <c r="B150" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="C150" s="92"/>
-      <c r="D150" s="92"/>
-      <c r="E150" s="92"/>
-      <c r="F150" s="92"/>
-      <c r="G150" s="93"/>
+      <c r="C150" s="89"/>
+      <c r="D150" s="89"/>
+      <c r="E150" s="89"/>
+      <c r="F150" s="89"/>
+      <c r="G150" s="90"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="53" t="s">
@@ -8869,23 +8869,23 @@
       <c r="A158" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B158" s="94"/>
-      <c r="C158" s="95"/>
-      <c r="D158" s="95"/>
-      <c r="E158" s="95"/>
-      <c r="F158" s="95"/>
-      <c r="G158" s="96"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="92"/>
+      <c r="D158" s="92"/>
+      <c r="E158" s="92"/>
+      <c r="F158" s="92"/>
+      <c r="G158" s="93"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="B159" s="88" t="s">
+      <c r="B159" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="89"/>
-      <c r="D159" s="89"/>
-      <c r="E159" s="90"/>
+      <c r="C159" s="101"/>
+      <c r="D159" s="101"/>
+      <c r="E159" s="102"/>
       <c r="F159" s="50" t="s">
         <v>48</v>
       </c>
@@ -8898,14 +8898,14 @@
       <c r="A160" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B160" s="91" t="s">
+      <c r="B160" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="C160" s="92"/>
-      <c r="D160" s="92"/>
-      <c r="E160" s="92"/>
-      <c r="F160" s="92"/>
-      <c r="G160" s="93"/>
+      <c r="C160" s="89"/>
+      <c r="D160" s="89"/>
+      <c r="E160" s="89"/>
+      <c r="F160" s="89"/>
+      <c r="G160" s="90"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="53" t="s">
@@ -9023,27 +9023,27 @@
       <c r="A167" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B167" s="94"/>
-      <c r="C167" s="95"/>
-      <c r="D167" s="95"/>
-      <c r="E167" s="95"/>
-      <c r="F167" s="95"/>
-      <c r="G167" s="96"/>
+      <c r="B167" s="91"/>
+      <c r="C167" s="92"/>
+      <c r="D167" s="92"/>
+      <c r="E167" s="92"/>
+      <c r="F167" s="92"/>
+      <c r="G167" s="93"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="B168" s="88" t="s">
+      <c r="B168" s="100" t="s">
         <v>176</v>
       </c>
-      <c r="C168" s="89" t="s">
+      <c r="C168" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="D168" s="89" t="s">
+      <c r="D168" s="101" t="s">
         <v>176</v>
       </c>
-      <c r="E168" s="90" t="s">
+      <c r="E168" s="102" t="s">
         <v>176</v>
       </c>
       <c r="F168" s="50" t="s">
@@ -9058,14 +9058,14 @@
       <c r="A169" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B169" s="91" t="s">
+      <c r="B169" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="C169" s="92"/>
-      <c r="D169" s="92"/>
-      <c r="E169" s="92"/>
-      <c r="F169" s="92"/>
-      <c r="G169" s="93"/>
+      <c r="C169" s="89"/>
+      <c r="D169" s="89"/>
+      <c r="E169" s="89"/>
+      <c r="F169" s="89"/>
+      <c r="G169" s="90"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="53" t="s">
@@ -9128,27 +9128,27 @@
       <c r="A173" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B173" s="94"/>
-      <c r="C173" s="95"/>
-      <c r="D173" s="95"/>
-      <c r="E173" s="95"/>
-      <c r="F173" s="95"/>
-      <c r="G173" s="96"/>
+      <c r="B173" s="91"/>
+      <c r="C173" s="92"/>
+      <c r="D173" s="92"/>
+      <c r="E173" s="92"/>
+      <c r="F173" s="92"/>
+      <c r="G173" s="93"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="B174" s="88" t="s">
+      <c r="B174" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="C174" s="89" t="s">
+      <c r="C174" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="D174" s="89" t="s">
+      <c r="D174" s="101" t="s">
         <v>177</v>
       </c>
-      <c r="E174" s="90" t="s">
+      <c r="E174" s="102" t="s">
         <v>177</v>
       </c>
       <c r="F174" s="50" t="s">
@@ -9163,14 +9163,14 @@
       <c r="A175" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B175" s="91" t="s">
+      <c r="B175" s="88" t="s">
         <v>122</v>
       </c>
-      <c r="C175" s="92"/>
-      <c r="D175" s="92"/>
-      <c r="E175" s="92"/>
-      <c r="F175" s="92"/>
-      <c r="G175" s="93"/>
+      <c r="C175" s="89"/>
+      <c r="D175" s="89"/>
+      <c r="E175" s="89"/>
+      <c r="F175" s="89"/>
+      <c r="G175" s="90"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="53" t="s">
@@ -9267,27 +9267,27 @@
       <c r="A181" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B181" s="94"/>
-      <c r="C181" s="95"/>
-      <c r="D181" s="95"/>
-      <c r="E181" s="95"/>
-      <c r="F181" s="95"/>
-      <c r="G181" s="96"/>
+      <c r="B181" s="91"/>
+      <c r="C181" s="92"/>
+      <c r="D181" s="92"/>
+      <c r="E181" s="92"/>
+      <c r="F181" s="92"/>
+      <c r="G181" s="93"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="B182" s="88" t="s">
+      <c r="B182" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="C182" s="89" t="s">
+      <c r="C182" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="D182" s="89" t="s">
+      <c r="D182" s="101" t="s">
         <v>178</v>
       </c>
-      <c r="E182" s="90" t="s">
+      <c r="E182" s="102" t="s">
         <v>178</v>
       </c>
       <c r="F182" s="50" t="s">
@@ -9302,14 +9302,14 @@
       <c r="A183" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B183" s="91" t="s">
+      <c r="B183" s="88" t="s">
         <v>206</v>
       </c>
-      <c r="C183" s="92"/>
-      <c r="D183" s="92"/>
-      <c r="E183" s="92"/>
-      <c r="F183" s="92"/>
-      <c r="G183" s="93"/>
+      <c r="C183" s="89"/>
+      <c r="D183" s="89"/>
+      <c r="E183" s="89"/>
+      <c r="F183" s="89"/>
+      <c r="G183" s="90"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="53" t="s">
@@ -9406,27 +9406,27 @@
       <c r="A189" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B189" s="94"/>
-      <c r="C189" s="95"/>
-      <c r="D189" s="95"/>
-      <c r="E189" s="95"/>
-      <c r="F189" s="95"/>
-      <c r="G189" s="96"/>
+      <c r="B189" s="91"/>
+      <c r="C189" s="92"/>
+      <c r="D189" s="92"/>
+      <c r="E189" s="92"/>
+      <c r="F189" s="92"/>
+      <c r="G189" s="93"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="B190" s="88" t="s">
+      <c r="B190" s="100" t="s">
         <v>179</v>
       </c>
-      <c r="C190" s="89" t="s">
+      <c r="C190" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="D190" s="89" t="s">
+      <c r="D190" s="101" t="s">
         <v>179</v>
       </c>
-      <c r="E190" s="90" t="s">
+      <c r="E190" s="102" t="s">
         <v>179</v>
       </c>
       <c r="F190" s="50" t="s">
@@ -9441,14 +9441,14 @@
       <c r="A191" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B191" s="91" t="s">
+      <c r="B191" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="C191" s="92"/>
-      <c r="D191" s="92"/>
-      <c r="E191" s="92"/>
-      <c r="F191" s="92"/>
-      <c r="G191" s="93"/>
+      <c r="C191" s="89"/>
+      <c r="D191" s="89"/>
+      <c r="E191" s="89"/>
+      <c r="F191" s="89"/>
+      <c r="G191" s="90"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="53" t="s">
@@ -9545,27 +9545,27 @@
       <c r="A197" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B197" s="94"/>
-      <c r="C197" s="95"/>
-      <c r="D197" s="95"/>
-      <c r="E197" s="95"/>
-      <c r="F197" s="95"/>
-      <c r="G197" s="96"/>
+      <c r="B197" s="91"/>
+      <c r="C197" s="92"/>
+      <c r="D197" s="92"/>
+      <c r="E197" s="92"/>
+      <c r="F197" s="92"/>
+      <c r="G197" s="93"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="B198" s="88" t="s">
+      <c r="B198" s="100" t="s">
         <v>224</v>
       </c>
-      <c r="C198" s="89" t="s">
+      <c r="C198" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="D198" s="89" t="s">
+      <c r="D198" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="E198" s="90" t="s">
+      <c r="E198" s="102" t="s">
         <v>181</v>
       </c>
       <c r="F198" s="50" t="s">
@@ -9580,14 +9580,14 @@
       <c r="A199" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B199" s="91" t="s">
+      <c r="B199" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="C199" s="92"/>
-      <c r="D199" s="92"/>
-      <c r="E199" s="92"/>
-      <c r="F199" s="92"/>
-      <c r="G199" s="93"/>
+      <c r="C199" s="89"/>
+      <c r="D199" s="89"/>
+      <c r="E199" s="89"/>
+      <c r="F199" s="89"/>
+      <c r="G199" s="90"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="53" t="s">
@@ -9701,27 +9701,27 @@
       <c r="A206" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B206" s="94"/>
-      <c r="C206" s="95"/>
-      <c r="D206" s="95"/>
-      <c r="E206" s="95"/>
-      <c r="F206" s="95"/>
-      <c r="G206" s="96"/>
+      <c r="B206" s="91"/>
+      <c r="C206" s="92"/>
+      <c r="D206" s="92"/>
+      <c r="E206" s="92"/>
+      <c r="F206" s="92"/>
+      <c r="G206" s="93"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="B207" s="88" t="s">
+      <c r="B207" s="100" t="s">
         <v>181</v>
       </c>
-      <c r="C207" s="89" t="s">
+      <c r="C207" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="D207" s="89" t="s">
+      <c r="D207" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="E207" s="90" t="s">
+      <c r="E207" s="102" t="s">
         <v>181</v>
       </c>
       <c r="F207" s="50" t="s">
@@ -9736,14 +9736,14 @@
       <c r="A208" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B208" s="91" t="s">
+      <c r="B208" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="C208" s="92"/>
-      <c r="D208" s="92"/>
-      <c r="E208" s="92"/>
-      <c r="F208" s="92"/>
-      <c r="G208" s="93"/>
+      <c r="C208" s="89"/>
+      <c r="D208" s="89"/>
+      <c r="E208" s="89"/>
+      <c r="F208" s="89"/>
+      <c r="G208" s="90"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="53" t="s">
@@ -9840,27 +9840,27 @@
       <c r="A214" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B214" s="94"/>
-      <c r="C214" s="95"/>
-      <c r="D214" s="95"/>
-      <c r="E214" s="95"/>
-      <c r="F214" s="95"/>
-      <c r="G214" s="96"/>
+      <c r="B214" s="91"/>
+      <c r="C214" s="92"/>
+      <c r="D214" s="92"/>
+      <c r="E214" s="92"/>
+      <c r="F214" s="92"/>
+      <c r="G214" s="93"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="B215" s="88" t="s">
+      <c r="B215" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="C215" s="89" t="s">
+      <c r="C215" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="D215" s="89" t="s">
+      <c r="D215" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="E215" s="90" t="s">
+      <c r="E215" s="102" t="s">
         <v>180</v>
       </c>
       <c r="F215" s="50" t="s">
@@ -9875,14 +9875,14 @@
       <c r="A216" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B216" s="91" t="s">
+      <c r="B216" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="C216" s="92"/>
-      <c r="D216" s="92"/>
-      <c r="E216" s="92"/>
-      <c r="F216" s="92"/>
-      <c r="G216" s="93"/>
+      <c r="C216" s="89"/>
+      <c r="D216" s="89"/>
+      <c r="E216" s="89"/>
+      <c r="F216" s="89"/>
+      <c r="G216" s="90"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="53" t="s">
@@ -10013,27 +10013,27 @@
       <c r="A224" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B224" s="94"/>
-      <c r="C224" s="95"/>
-      <c r="D224" s="95"/>
-      <c r="E224" s="95"/>
-      <c r="F224" s="95"/>
-      <c r="G224" s="96"/>
+      <c r="B224" s="91"/>
+      <c r="C224" s="92"/>
+      <c r="D224" s="92"/>
+      <c r="E224" s="92"/>
+      <c r="F224" s="92"/>
+      <c r="G224" s="93"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="B225" s="88" t="s">
+      <c r="B225" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="C225" s="89" t="s">
+      <c r="C225" s="101" t="s">
         <v>196</v>
       </c>
-      <c r="D225" s="89" t="s">
+      <c r="D225" s="101" t="s">
         <v>196</v>
       </c>
-      <c r="E225" s="90" t="s">
+      <c r="E225" s="102" t="s">
         <v>196</v>
       </c>
       <c r="F225" s="50" t="s">
@@ -10048,14 +10048,14 @@
       <c r="A226" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B226" s="91" t="s">
+      <c r="B226" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="C226" s="92"/>
-      <c r="D226" s="92"/>
-      <c r="E226" s="92"/>
-      <c r="F226" s="92"/>
-      <c r="G226" s="93"/>
+      <c r="C226" s="89"/>
+      <c r="D226" s="89"/>
+      <c r="E226" s="89"/>
+      <c r="F226" s="89"/>
+      <c r="G226" s="90"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="53" t="s">
@@ -10150,27 +10150,27 @@
       <c r="A234" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B234" s="94"/>
-      <c r="C234" s="95"/>
-      <c r="D234" s="95"/>
-      <c r="E234" s="95"/>
-      <c r="F234" s="95"/>
-      <c r="G234" s="96"/>
+      <c r="B234" s="91"/>
+      <c r="C234" s="92"/>
+      <c r="D234" s="92"/>
+      <c r="E234" s="92"/>
+      <c r="F234" s="92"/>
+      <c r="G234" s="93"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="B235" s="88" t="s">
+      <c r="B235" s="100" t="s">
         <v>182</v>
       </c>
-      <c r="C235" s="89" t="s">
+      <c r="C235" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="D235" s="89" t="s">
+      <c r="D235" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="E235" s="90" t="s">
+      <c r="E235" s="102" t="s">
         <v>182</v>
       </c>
       <c r="F235" s="50" t="s">
@@ -10185,14 +10185,14 @@
       <c r="A236" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B236" s="91" t="s">
+      <c r="B236" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="C236" s="92"/>
-      <c r="D236" s="92"/>
-      <c r="E236" s="92"/>
-      <c r="F236" s="92"/>
-      <c r="G236" s="93"/>
+      <c r="C236" s="89"/>
+      <c r="D236" s="89"/>
+      <c r="E236" s="89"/>
+      <c r="F236" s="89"/>
+      <c r="G236" s="90"/>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="53" t="s">
@@ -10289,27 +10289,27 @@
       <c r="A242" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B242" s="94"/>
-      <c r="C242" s="95"/>
-      <c r="D242" s="95"/>
-      <c r="E242" s="95"/>
-      <c r="F242" s="95"/>
-      <c r="G242" s="96"/>
+      <c r="B242" s="91"/>
+      <c r="C242" s="92"/>
+      <c r="D242" s="92"/>
+      <c r="E242" s="92"/>
+      <c r="F242" s="92"/>
+      <c r="G242" s="93"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="B243" s="88" t="s">
+      <c r="B243" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="C243" s="89" t="s">
+      <c r="C243" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="D243" s="89" t="s">
+      <c r="D243" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="E243" s="90" t="s">
+      <c r="E243" s="102" t="s">
         <v>182</v>
       </c>
       <c r="F243" s="50" t="s">
@@ -10324,14 +10324,14 @@
       <c r="A244" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B244" s="91" t="s">
+      <c r="B244" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="C244" s="92"/>
-      <c r="D244" s="92"/>
-      <c r="E244" s="92"/>
-      <c r="F244" s="92"/>
-      <c r="G244" s="93"/>
+      <c r="C244" s="89"/>
+      <c r="D244" s="89"/>
+      <c r="E244" s="89"/>
+      <c r="F244" s="89"/>
+      <c r="G244" s="90"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="53" t="s">
@@ -10411,27 +10411,27 @@
       <c r="A249" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B249" s="94"/>
-      <c r="C249" s="95"/>
-      <c r="D249" s="95"/>
-      <c r="E249" s="95"/>
-      <c r="F249" s="95"/>
-      <c r="G249" s="96"/>
+      <c r="B249" s="91"/>
+      <c r="C249" s="92"/>
+      <c r="D249" s="92"/>
+      <c r="E249" s="92"/>
+      <c r="F249" s="92"/>
+      <c r="G249" s="93"/>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="B250" s="88" t="s">
+      <c r="B250" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="C250" s="89" t="s">
+      <c r="C250" s="101" t="s">
         <v>195</v>
       </c>
-      <c r="D250" s="89" t="s">
+      <c r="D250" s="101" t="s">
         <v>195</v>
       </c>
-      <c r="E250" s="90" t="s">
+      <c r="E250" s="102" t="s">
         <v>195</v>
       </c>
       <c r="F250" s="50" t="s">
@@ -10446,14 +10446,14 @@
       <c r="A251" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="B251" s="91" t="s">
+      <c r="B251" s="88" t="s">
         <v>212</v>
       </c>
-      <c r="C251" s="92"/>
-      <c r="D251" s="92"/>
-      <c r="E251" s="92"/>
-      <c r="F251" s="92"/>
-      <c r="G251" s="93"/>
+      <c r="C251" s="89"/>
+      <c r="D251" s="89"/>
+      <c r="E251" s="89"/>
+      <c r="F251" s="89"/>
+      <c r="G251" s="90"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="53" t="s">
@@ -10533,12 +10533,12 @@
       <c r="A256" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B256" s="94"/>
-      <c r="C256" s="95"/>
-      <c r="D256" s="95"/>
-      <c r="E256" s="95"/>
-      <c r="F256" s="95"/>
-      <c r="G256" s="96"/>
+      <c r="B256" s="91"/>
+      <c r="C256" s="92"/>
+      <c r="D256" s="92"/>
+      <c r="E256" s="92"/>
+      <c r="F256" s="92"/>
+      <c r="G256" s="93"/>
     </row>
     <row r="257" spans="1:7">
       <c r="A257"/>
@@ -16938,80 +16938,6 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B124:E124"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="B138:G138"/>
-    <mergeCell ref="B160:G160"/>
-    <mergeCell ref="B167:G167"/>
-    <mergeCell ref="B148:G148"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="B150:G150"/>
-    <mergeCell ref="B158:G158"/>
-    <mergeCell ref="B159:E159"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B169:G169"/>
-    <mergeCell ref="B173:G173"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B181:G181"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="B183:G183"/>
-    <mergeCell ref="B189:G189"/>
-    <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B191:G191"/>
-    <mergeCell ref="B197:G197"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B206:G206"/>
-    <mergeCell ref="B207:E207"/>
-    <mergeCell ref="B208:G208"/>
-    <mergeCell ref="B214:G214"/>
-    <mergeCell ref="B215:E215"/>
-    <mergeCell ref="B216:G216"/>
-    <mergeCell ref="B224:G224"/>
-    <mergeCell ref="B225:E225"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="B234:G234"/>
-    <mergeCell ref="B235:E235"/>
     <mergeCell ref="B250:E250"/>
     <mergeCell ref="B251:G251"/>
     <mergeCell ref="B256:G256"/>
@@ -17020,6 +16946,80 @@
     <mergeCell ref="B243:E243"/>
     <mergeCell ref="B244:G244"/>
     <mergeCell ref="B249:G249"/>
+    <mergeCell ref="B224:G224"/>
+    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="B226:G226"/>
+    <mergeCell ref="B234:G234"/>
+    <mergeCell ref="B235:E235"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B208:G208"/>
+    <mergeCell ref="B214:G214"/>
+    <mergeCell ref="B215:E215"/>
+    <mergeCell ref="B216:G216"/>
+    <mergeCell ref="B191:G191"/>
+    <mergeCell ref="B197:G197"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B199:G199"/>
+    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B181:G181"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="B183:G183"/>
+    <mergeCell ref="B189:G189"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B173:G173"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B167:G167"/>
+    <mergeCell ref="B148:G148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="B158:G158"/>
+    <mergeCell ref="B159:E159"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="B138:G138"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F450:F452 F457:F463 F676:F678 F666:F671 F468:F477 F482:F485 F490:F495 F500:F508 F513:F522 F527:F537 F542:F552 F568:F574 F596:F598 F557:F563 F579:F585 F590:F591 F603:F609 F614:F620 F636:F638 F625:F631 F643:F646 F651:F653 F658:F661 F21:F23 F152:F157 F28:F36 F41:F45 F50:F54 F77:F82 F96:F98 F103:F109 F114:F122 F127:F135 F140:F147 F59:F64 F69:F72 F87:F91 F162:F166 F171:F172 F177:F180 F185:F188 F193:F196 F201:F205 F210:F213 F218:F223 F228:F233 F238:F241 F246:F248 F253:F255" xr:uid="{59CD337E-F2A3-4555-8531-BBD5B92517F1}">

--- a/TCS_NEWUI_SavedSearchList.xlsx
+++ b/TCS_NEWUI_SavedSearchList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sumit Rana\Projects\AdIntel- New\Test Cases\TC Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumitr\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F17666-233F-4F3D-AE1C-D776DEB80F14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2EE6DC-ED4F-48C6-B022-C951A7E29CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="815" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="274">
   <si>
     <t>Test Case Result Modules-Wise</t>
   </si>
@@ -968,6 +968,43 @@
   </si>
   <si>
     <t>// Bug tickets</t>
+  </si>
+  <si>
+    <t>TC29</t>
+  </si>
+  <si>
+    <t>Verify the multi product or multiple occurrences for same AD should be counted as per their unique ids</t>
+  </si>
+  <si>
+    <t>SMRT-8029</t>
+  </si>
+  <si>
+    <t>US:WEB-7429_TC 29</t>
+  </si>
+  <si>
+    <t>Report- Print Dynamics Dahboard (Occurrence)</t>
+  </si>
+  <si>
+    <t>Find a Multi product Ad</t>
+  </si>
+  <si>
+    <t>Apply that Adcode filter from the search options</t>
+  </si>
+  <si>
+    <t>User should be able to find an ad with multiple records in the table view with a similar Adcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. User should be able to enter adcodes in the ADCODE serach options field
+2. Data shoud be filtered
+</t>
+  </si>
+  <si>
+    <t>Verify the Ad Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Multiple records/entries should be displayed in the AgGrid for same AdCode
+2. Carousel should show unique Ads( lets say you have applied 2 Adcodes, Carousel should show 2 ads) no repetitive ads.
+3. Count beside the applied search in the saved search list should be based on the unique ids </t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1293,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1267,7 +1304,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2669,6 +2706,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="146" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2677,24 +2732,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="30" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="40" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="41" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="42" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="24" borderId="21" xfId="143" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3182,7 +3219,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3211,11 +3248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="853946400"/>
-        <c:axId val="853942592"/>
+        <c:axId val="1756283840"/>
+        <c:axId val="1756285472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="853946400"/>
+        <c:axId val="1756283840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3237,7 +3274,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="853942592"/>
+        <c:crossAx val="1756285472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3245,7 +3282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="853942592"/>
+        <c:axId val="1756285472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3255,7 +3292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="853946400"/>
+        <c:crossAx val="1756283840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3485,10 +3522,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.9642857142857143</c:v>
+                  <c:v>0.96551724137931039</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5714285714285698E-2</c:v>
+                  <c:v>3.4482758620689613E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3684,7 +3721,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -4667,7 +4704,7 @@
       </c>
       <c r="B8" s="12">
         <f>'SMART- SavedSearchList'!G7</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="12">
         <f>'SMART- SavedSearchList'!G8</f>
@@ -4683,11 +4720,11 @@
       </c>
       <c r="F8" s="12">
         <f>SUM(B8:E8)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="17">
         <f>(B8+C8+D8)/(F8)</f>
-        <v>0.9642857142857143</v>
+        <v>0.96551724137931039</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4705,7 +4742,7 @@
       </c>
       <c r="B10" s="18">
         <f>SUM(B8:B9)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="18">
         <f>SUM(C8:C9)</f>
@@ -4721,11 +4758,11 @@
       </c>
       <c r="F10" s="18">
         <f>SUM(F8:F9)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G10" s="14">
         <f>SUM(G8:G8)</f>
-        <v>0.9642857142857143</v>
+        <v>0.96551724137931039</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickTop="1">
@@ -4734,7 +4771,7 @@
       </c>
       <c r="G11" s="15">
         <f>100%-G10</f>
-        <v>3.5714285714285698E-2</v>
+        <v>3.4482758620689613E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4760,8 +4797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -5378,8 +5415,15 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="85"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="85"/>
@@ -5650,8 +5694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H968"/>
   <sheetViews>
-    <sheetView topLeftCell="A266" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C274" sqref="C274"/>
+    <sheetView topLeftCell="A274" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G273" sqref="G273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -6399,7 +6443,7 @@
       </c>
       <c r="G7" s="34">
         <f>COUNTIF(G11:G1094,"Pass")</f>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
@@ -6459,7 +6503,7 @@
       </c>
       <c r="C11" s="27">
         <f>G7</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="25"/>
@@ -6538,12 +6582,12 @@
       <c r="A18" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="48" t="s">
         <v>48</v>
       </c>
@@ -6556,14 +6600,14 @@
       <c r="A19" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="94"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
     </row>
     <row r="20" spans="1:7" s="46" customFormat="1">
       <c r="A20" s="51" t="s">
@@ -6645,23 +6689,23 @@
       <c r="A24" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="88"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="94"/>
     </row>
     <row r="25" spans="1:7" customFormat="1">
       <c r="A25" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="91"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="48" t="s">
         <v>48</v>
       </c>
@@ -6674,14 +6718,14 @@
       <c r="A26" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="94"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
     </row>
     <row r="27" spans="1:7" customFormat="1">
       <c r="A27" s="51" t="s">
@@ -6867,23 +6911,23 @@
       <c r="A37" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="88"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="94"/>
     </row>
     <row r="38" spans="1:7" customFormat="1">
       <c r="A38" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="91"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="88"/>
       <c r="F38" s="48" t="s">
         <v>48</v>
       </c>
@@ -6896,14 +6940,14 @@
       <c r="A39" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="94"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="91"/>
     </row>
     <row r="40" spans="1:7" customFormat="1">
       <c r="A40" s="51" t="s">
@@ -7019,23 +7063,23 @@
       <c r="A46" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="86"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="88"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="94"/>
     </row>
     <row r="47" spans="1:7" customFormat="1">
       <c r="A47" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="B47" s="89" t="s">
+      <c r="B47" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="91"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="88"/>
       <c r="F47" s="48" t="s">
         <v>48</v>
       </c>
@@ -7048,14 +7092,14 @@
       <c r="A48" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
-      <c r="G48" s="94"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
+      <c r="E48" s="90"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="91"/>
     </row>
     <row r="49" spans="1:7" customFormat="1">
       <c r="A49" s="51" t="s">
@@ -7171,23 +7215,23 @@
       <c r="A55" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="88"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="94"/>
     </row>
     <row r="56" spans="1:7" customFormat="1">
       <c r="A56" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="B56" s="89" t="s">
+      <c r="B56" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="91"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="88"/>
       <c r="F56" s="48" t="s">
         <v>48</v>
       </c>
@@ -7200,14 +7244,14 @@
       <c r="A57" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="93"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="93"/>
-      <c r="F57" s="93"/>
-      <c r="G57" s="94"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="91"/>
     </row>
     <row r="58" spans="1:7" customFormat="1">
       <c r="A58" s="51" t="s">
@@ -7340,23 +7384,23 @@
       <c r="A65" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B65" s="86"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="88"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="93"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="94"/>
     </row>
     <row r="66" spans="1:7" customFormat="1">
       <c r="A66" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="89" t="s">
+      <c r="B66" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="90"/>
-      <c r="D66" s="90"/>
-      <c r="E66" s="91"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="88"/>
       <c r="F66" s="48" t="s">
         <v>48</v>
       </c>
@@ -7369,14 +7413,14 @@
       <c r="A67" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B67" s="92" t="s">
+      <c r="B67" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="C67" s="93"/>
-      <c r="D67" s="93"/>
-      <c r="E67" s="93"/>
-      <c r="F67" s="93"/>
-      <c r="G67" s="94"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="91"/>
     </row>
     <row r="68" spans="1:7" customFormat="1">
       <c r="A68" s="51" t="s">
@@ -7477,23 +7521,23 @@
       <c r="A73" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B73" s="86"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="88"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="93"/>
+      <c r="D73" s="93"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="94"/>
     </row>
     <row r="74" spans="1:7" customFormat="1">
       <c r="A74" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="89" t="s">
+      <c r="B74" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="C74" s="90"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="91"/>
+      <c r="C74" s="87"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="88"/>
       <c r="F74" s="48" t="s">
         <v>48</v>
       </c>
@@ -7506,14 +7550,14 @@
       <c r="A75" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="C75" s="93"/>
-      <c r="D75" s="93"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="94"/>
+      <c r="C75" s="90"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="91"/>
     </row>
     <row r="76" spans="1:7" customFormat="1">
       <c r="A76" s="51" t="s">
@@ -7646,23 +7690,23 @@
       <c r="A83" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="86"/>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="87"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="88"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="94"/>
     </row>
     <row r="84" spans="1:7" customFormat="1">
       <c r="A84" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="89" t="s">
+      <c r="B84" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="C84" s="90"/>
-      <c r="D84" s="90"/>
-      <c r="E84" s="91"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="87"/>
+      <c r="E84" s="88"/>
       <c r="F84" s="48" t="s">
         <v>48</v>
       </c>
@@ -7675,14 +7719,14 @@
       <c r="A85" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="93"/>
-      <c r="D85" s="93"/>
-      <c r="E85" s="93"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="94"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="90"/>
+      <c r="E85" s="90"/>
+      <c r="F85" s="90"/>
+      <c r="G85" s="91"/>
     </row>
     <row r="86" spans="1:7" customFormat="1">
       <c r="A86" s="51" t="s">
@@ -7798,23 +7842,23 @@
       <c r="A92" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B92" s="86"/>
-      <c r="C92" s="87"/>
-      <c r="D92" s="87"/>
-      <c r="E92" s="87"/>
-      <c r="F92" s="87"/>
-      <c r="G92" s="88"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="93"/>
+      <c r="E92" s="93"/>
+      <c r="F92" s="93"/>
+      <c r="G92" s="94"/>
     </row>
     <row r="93" spans="1:7" customFormat="1">
       <c r="A93" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="89" t="s">
+      <c r="B93" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="C93" s="90"/>
-      <c r="D93" s="90"/>
-      <c r="E93" s="91"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="88"/>
       <c r="F93" s="48" t="s">
         <v>48</v>
       </c>
@@ -7827,14 +7871,14 @@
       <c r="A94" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B94" s="92" t="s">
+      <c r="B94" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="C94" s="93"/>
-      <c r="D94" s="93"/>
-      <c r="E94" s="93"/>
-      <c r="F94" s="93"/>
-      <c r="G94" s="94"/>
+      <c r="C94" s="90"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="90"/>
+      <c r="G94" s="91"/>
     </row>
     <row r="95" spans="1:7" customFormat="1">
       <c r="A95" s="51" t="s">
@@ -7916,23 +7960,23 @@
       <c r="A99" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B99" s="86"/>
-      <c r="C99" s="87"/>
-      <c r="D99" s="87"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="87"/>
-      <c r="G99" s="88"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="93"/>
+      <c r="D99" s="93"/>
+      <c r="E99" s="93"/>
+      <c r="F99" s="93"/>
+      <c r="G99" s="94"/>
     </row>
     <row r="100" spans="1:7" customFormat="1">
       <c r="A100" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="B100" s="89" t="s">
+      <c r="B100" s="86" t="s">
         <v>68</v>
       </c>
-      <c r="C100" s="90"/>
-      <c r="D100" s="90"/>
-      <c r="E100" s="91"/>
+      <c r="C100" s="87"/>
+      <c r="D100" s="87"/>
+      <c r="E100" s="88"/>
       <c r="F100" s="48" t="s">
         <v>48</v>
       </c>
@@ -7945,14 +7989,14 @@
       <c r="A101" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B101" s="92" t="s">
+      <c r="B101" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="93"/>
-      <c r="D101" s="93"/>
-      <c r="E101" s="93"/>
-      <c r="F101" s="93"/>
-      <c r="G101" s="94"/>
+      <c r="C101" s="90"/>
+      <c r="D101" s="90"/>
+      <c r="E101" s="90"/>
+      <c r="F101" s="90"/>
+      <c r="G101" s="91"/>
     </row>
     <row r="102" spans="1:7" customFormat="1">
       <c r="A102" s="51" t="s">
@@ -8102,23 +8146,23 @@
       <c r="A110" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B110" s="86"/>
-      <c r="C110" s="87"/>
-      <c r="D110" s="87"/>
-      <c r="E110" s="87"/>
-      <c r="F110" s="87"/>
-      <c r="G110" s="88"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="93"/>
+      <c r="D110" s="93"/>
+      <c r="E110" s="93"/>
+      <c r="F110" s="93"/>
+      <c r="G110" s="94"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="B111" s="89" t="s">
+      <c r="B111" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="C111" s="90"/>
-      <c r="D111" s="90"/>
-      <c r="E111" s="91"/>
+      <c r="C111" s="87"/>
+      <c r="D111" s="87"/>
+      <c r="E111" s="88"/>
       <c r="F111" s="48" t="s">
         <v>48</v>
       </c>
@@ -8131,14 +8175,14 @@
       <c r="A112" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B112" s="92" t="s">
+      <c r="B112" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C112" s="93"/>
-      <c r="D112" s="93"/>
-      <c r="E112" s="93"/>
-      <c r="F112" s="93"/>
-      <c r="G112" s="94"/>
+      <c r="C112" s="90"/>
+      <c r="D112" s="90"/>
+      <c r="E112" s="90"/>
+      <c r="F112" s="90"/>
+      <c r="G112" s="91"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="51" t="s">
@@ -8322,23 +8366,23 @@
       <c r="A123" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B123" s="86"/>
-      <c r="C123" s="87"/>
-      <c r="D123" s="87"/>
-      <c r="E123" s="87"/>
-      <c r="F123" s="87"/>
-      <c r="G123" s="88"/>
+      <c r="B123" s="92"/>
+      <c r="C123" s="93"/>
+      <c r="D123" s="93"/>
+      <c r="E123" s="93"/>
+      <c r="F123" s="93"/>
+      <c r="G123" s="94"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="B124" s="89" t="s">
+      <c r="B124" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C124" s="90"/>
-      <c r="D124" s="90"/>
-      <c r="E124" s="91"/>
+      <c r="C124" s="87"/>
+      <c r="D124" s="87"/>
+      <c r="E124" s="88"/>
       <c r="F124" s="48" t="s">
         <v>48</v>
       </c>
@@ -8351,14 +8395,14 @@
       <c r="A125" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B125" s="92" t="s">
+      <c r="B125" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="93"/>
-      <c r="D125" s="93"/>
-      <c r="E125" s="93"/>
-      <c r="F125" s="93"/>
-      <c r="G125" s="94"/>
+      <c r="C125" s="90"/>
+      <c r="D125" s="90"/>
+      <c r="E125" s="90"/>
+      <c r="F125" s="90"/>
+      <c r="G125" s="91"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="51" t="s">
@@ -8543,23 +8587,23 @@
       <c r="A136" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B136" s="86"/>
-      <c r="C136" s="87"/>
-      <c r="D136" s="87"/>
-      <c r="E136" s="87"/>
-      <c r="F136" s="87"/>
-      <c r="G136" s="88"/>
+      <c r="B136" s="92"/>
+      <c r="C136" s="93"/>
+      <c r="D136" s="93"/>
+      <c r="E136" s="93"/>
+      <c r="F136" s="93"/>
+      <c r="G136" s="94"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="B137" s="89" t="s">
+      <c r="B137" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="C137" s="90"/>
-      <c r="D137" s="90"/>
-      <c r="E137" s="91"/>
+      <c r="C137" s="87"/>
+      <c r="D137" s="87"/>
+      <c r="E137" s="88"/>
       <c r="F137" s="48" t="s">
         <v>48</v>
       </c>
@@ -8572,14 +8616,14 @@
       <c r="A138" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B138" s="92" t="s">
+      <c r="B138" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="C138" s="93"/>
-      <c r="D138" s="93"/>
-      <c r="E138" s="93"/>
-      <c r="F138" s="93"/>
-      <c r="G138" s="94"/>
+      <c r="C138" s="90"/>
+      <c r="D138" s="90"/>
+      <c r="E138" s="90"/>
+      <c r="F138" s="90"/>
+      <c r="G138" s="91"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="51" t="s">
@@ -8748,23 +8792,23 @@
       <c r="A148" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B148" s="86"/>
-      <c r="C148" s="87"/>
-      <c r="D148" s="87"/>
-      <c r="E148" s="87"/>
-      <c r="F148" s="87"/>
-      <c r="G148" s="88"/>
+      <c r="B148" s="92"/>
+      <c r="C148" s="93"/>
+      <c r="D148" s="93"/>
+      <c r="E148" s="93"/>
+      <c r="F148" s="93"/>
+      <c r="G148" s="94"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B149" s="89" t="s">
+      <c r="B149" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="C149" s="90"/>
-      <c r="D149" s="90"/>
-      <c r="E149" s="91"/>
+      <c r="C149" s="87"/>
+      <c r="D149" s="87"/>
+      <c r="E149" s="88"/>
       <c r="F149" s="48" t="s">
         <v>48</v>
       </c>
@@ -8777,14 +8821,14 @@
       <c r="A150" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B150" s="92" t="s">
+      <c r="B150" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="C150" s="93"/>
-      <c r="D150" s="93"/>
-      <c r="E150" s="93"/>
-      <c r="F150" s="93"/>
-      <c r="G150" s="94"/>
+      <c r="C150" s="90"/>
+      <c r="D150" s="90"/>
+      <c r="E150" s="90"/>
+      <c r="F150" s="90"/>
+      <c r="G150" s="91"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="51" t="s">
@@ -8917,23 +8961,23 @@
       <c r="A158" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B158" s="86"/>
-      <c r="C158" s="87"/>
-      <c r="D158" s="87"/>
-      <c r="E158" s="87"/>
-      <c r="F158" s="87"/>
-      <c r="G158" s="88"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="93"/>
+      <c r="D158" s="93"/>
+      <c r="E158" s="93"/>
+      <c r="F158" s="93"/>
+      <c r="G158" s="94"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="B159" s="89" t="s">
+      <c r="B159" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="C159" s="90"/>
-      <c r="D159" s="90"/>
-      <c r="E159" s="91"/>
+      <c r="C159" s="87"/>
+      <c r="D159" s="87"/>
+      <c r="E159" s="88"/>
       <c r="F159" s="48" t="s">
         <v>48</v>
       </c>
@@ -8946,14 +8990,14 @@
       <c r="A160" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B160" s="92" t="s">
+      <c r="B160" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="C160" s="93"/>
-      <c r="D160" s="93"/>
-      <c r="E160" s="93"/>
-      <c r="F160" s="93"/>
-      <c r="G160" s="94"/>
+      <c r="C160" s="90"/>
+      <c r="D160" s="90"/>
+      <c r="E160" s="90"/>
+      <c r="F160" s="90"/>
+      <c r="G160" s="91"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="51" t="s">
@@ -9071,27 +9115,27 @@
       <c r="A167" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B167" s="86"/>
-      <c r="C167" s="87"/>
-      <c r="D167" s="87"/>
-      <c r="E167" s="87"/>
-      <c r="F167" s="87"/>
-      <c r="G167" s="88"/>
+      <c r="B167" s="92"/>
+      <c r="C167" s="93"/>
+      <c r="D167" s="93"/>
+      <c r="E167" s="93"/>
+      <c r="F167" s="93"/>
+      <c r="G167" s="94"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="B168" s="89" t="s">
+      <c r="B168" s="86" t="s">
         <v>173</v>
       </c>
-      <c r="C168" s="90" t="s">
+      <c r="C168" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="D168" s="90" t="s">
+      <c r="D168" s="87" t="s">
         <v>173</v>
       </c>
-      <c r="E168" s="91" t="s">
+      <c r="E168" s="88" t="s">
         <v>173</v>
       </c>
       <c r="F168" s="48" t="s">
@@ -9106,14 +9150,14 @@
       <c r="A169" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B169" s="92" t="s">
+      <c r="B169" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="C169" s="93"/>
-      <c r="D169" s="93"/>
-      <c r="E169" s="93"/>
-      <c r="F169" s="93"/>
-      <c r="G169" s="94"/>
+      <c r="C169" s="90"/>
+      <c r="D169" s="90"/>
+      <c r="E169" s="90"/>
+      <c r="F169" s="90"/>
+      <c r="G169" s="91"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="51" t="s">
@@ -9176,27 +9220,27 @@
       <c r="A173" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B173" s="86"/>
-      <c r="C173" s="87"/>
-      <c r="D173" s="87"/>
-      <c r="E173" s="87"/>
-      <c r="F173" s="87"/>
-      <c r="G173" s="88"/>
+      <c r="B173" s="92"/>
+      <c r="C173" s="93"/>
+      <c r="D173" s="93"/>
+      <c r="E173" s="93"/>
+      <c r="F173" s="93"/>
+      <c r="G173" s="94"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="B174" s="89" t="s">
+      <c r="B174" s="86" t="s">
         <v>174</v>
       </c>
-      <c r="C174" s="90" t="s">
+      <c r="C174" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="D174" s="90" t="s">
+      <c r="D174" s="87" t="s">
         <v>174</v>
       </c>
-      <c r="E174" s="91" t="s">
+      <c r="E174" s="88" t="s">
         <v>174</v>
       </c>
       <c r="F174" s="48" t="s">
@@ -9211,14 +9255,14 @@
       <c r="A175" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B175" s="92" t="s">
+      <c r="B175" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="C175" s="93"/>
-      <c r="D175" s="93"/>
-      <c r="E175" s="93"/>
-      <c r="F175" s="93"/>
-      <c r="G175" s="94"/>
+      <c r="C175" s="90"/>
+      <c r="D175" s="90"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="90"/>
+      <c r="G175" s="91"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="51" t="s">
@@ -9315,27 +9359,27 @@
       <c r="A181" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B181" s="86"/>
-      <c r="C181" s="87"/>
-      <c r="D181" s="87"/>
-      <c r="E181" s="87"/>
-      <c r="F181" s="87"/>
-      <c r="G181" s="88"/>
+      <c r="B181" s="92"/>
+      <c r="C181" s="93"/>
+      <c r="D181" s="93"/>
+      <c r="E181" s="93"/>
+      <c r="F181" s="93"/>
+      <c r="G181" s="94"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="B182" s="89" t="s">
+      <c r="B182" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C182" s="90" t="s">
+      <c r="C182" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="D182" s="90" t="s">
+      <c r="D182" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="E182" s="91" t="s">
+      <c r="E182" s="88" t="s">
         <v>175</v>
       </c>
       <c r="F182" s="48" t="s">
@@ -9350,14 +9394,14 @@
       <c r="A183" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B183" s="92" t="s">
+      <c r="B183" s="89" t="s">
         <v>203</v>
       </c>
-      <c r="C183" s="93"/>
-      <c r="D183" s="93"/>
-      <c r="E183" s="93"/>
-      <c r="F183" s="93"/>
-      <c r="G183" s="94"/>
+      <c r="C183" s="90"/>
+      <c r="D183" s="90"/>
+      <c r="E183" s="90"/>
+      <c r="F183" s="90"/>
+      <c r="G183" s="91"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="51" t="s">
@@ -9454,27 +9498,27 @@
       <c r="A189" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B189" s="86"/>
-      <c r="C189" s="87"/>
-      <c r="D189" s="87"/>
-      <c r="E189" s="87"/>
-      <c r="F189" s="87"/>
-      <c r="G189" s="88"/>
+      <c r="B189" s="92"/>
+      <c r="C189" s="93"/>
+      <c r="D189" s="93"/>
+      <c r="E189" s="93"/>
+      <c r="F189" s="93"/>
+      <c r="G189" s="94"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="B190" s="89" t="s">
+      <c r="B190" s="86" t="s">
         <v>176</v>
       </c>
-      <c r="C190" s="90" t="s">
+      <c r="C190" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="D190" s="90" t="s">
+      <c r="D190" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="E190" s="91" t="s">
+      <c r="E190" s="88" t="s">
         <v>176</v>
       </c>
       <c r="F190" s="48" t="s">
@@ -9489,14 +9533,14 @@
       <c r="A191" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B191" s="92" t="s">
+      <c r="B191" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C191" s="93"/>
-      <c r="D191" s="93"/>
-      <c r="E191" s="93"/>
-      <c r="F191" s="93"/>
-      <c r="G191" s="94"/>
+      <c r="C191" s="90"/>
+      <c r="D191" s="90"/>
+      <c r="E191" s="90"/>
+      <c r="F191" s="90"/>
+      <c r="G191" s="91"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="51" t="s">
@@ -9593,27 +9637,27 @@
       <c r="A197" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B197" s="86"/>
-      <c r="C197" s="87"/>
-      <c r="D197" s="87"/>
-      <c r="E197" s="87"/>
-      <c r="F197" s="87"/>
-      <c r="G197" s="88"/>
+      <c r="B197" s="92"/>
+      <c r="C197" s="93"/>
+      <c r="D197" s="93"/>
+      <c r="E197" s="93"/>
+      <c r="F197" s="93"/>
+      <c r="G197" s="94"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="B198" s="89" t="s">
+      <c r="B198" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="C198" s="90" t="s">
+      <c r="C198" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="D198" s="90" t="s">
+      <c r="D198" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="E198" s="91" t="s">
+      <c r="E198" s="88" t="s">
         <v>178</v>
       </c>
       <c r="F198" s="48" t="s">
@@ -9628,14 +9672,14 @@
       <c r="A199" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B199" s="92" t="s">
+      <c r="B199" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C199" s="93"/>
-      <c r="D199" s="93"/>
-      <c r="E199" s="93"/>
-      <c r="F199" s="93"/>
-      <c r="G199" s="94"/>
+      <c r="C199" s="90"/>
+      <c r="D199" s="90"/>
+      <c r="E199" s="90"/>
+      <c r="F199" s="90"/>
+      <c r="G199" s="91"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="51" t="s">
@@ -9749,27 +9793,27 @@
       <c r="A206" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B206" s="86"/>
-      <c r="C206" s="87"/>
-      <c r="D206" s="87"/>
-      <c r="E206" s="87"/>
-      <c r="F206" s="87"/>
-      <c r="G206" s="88"/>
+      <c r="B206" s="92"/>
+      <c r="C206" s="93"/>
+      <c r="D206" s="93"/>
+      <c r="E206" s="93"/>
+      <c r="F206" s="93"/>
+      <c r="G206" s="94"/>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="B207" s="89" t="s">
+      <c r="B207" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C207" s="90" t="s">
+      <c r="C207" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="D207" s="90" t="s">
+      <c r="D207" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="E207" s="91" t="s">
+      <c r="E207" s="88" t="s">
         <v>178</v>
       </c>
       <c r="F207" s="48" t="s">
@@ -9784,14 +9828,14 @@
       <c r="A208" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B208" s="92" t="s">
+      <c r="B208" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C208" s="93"/>
-      <c r="D208" s="93"/>
-      <c r="E208" s="93"/>
-      <c r="F208" s="93"/>
-      <c r="G208" s="94"/>
+      <c r="C208" s="90"/>
+      <c r="D208" s="90"/>
+      <c r="E208" s="90"/>
+      <c r="F208" s="90"/>
+      <c r="G208" s="91"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="51" t="s">
@@ -9888,27 +9932,27 @@
       <c r="A214" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B214" s="86"/>
-      <c r="C214" s="87"/>
-      <c r="D214" s="87"/>
-      <c r="E214" s="87"/>
-      <c r="F214" s="87"/>
-      <c r="G214" s="88"/>
+      <c r="B214" s="92"/>
+      <c r="C214" s="93"/>
+      <c r="D214" s="93"/>
+      <c r="E214" s="93"/>
+      <c r="F214" s="93"/>
+      <c r="G214" s="94"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="B215" s="89" t="s">
+      <c r="B215" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="C215" s="90" t="s">
+      <c r="C215" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="D215" s="90" t="s">
+      <c r="D215" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="E215" s="91" t="s">
+      <c r="E215" s="88" t="s">
         <v>177</v>
       </c>
       <c r="F215" s="48" t="s">
@@ -9923,14 +9967,14 @@
       <c r="A216" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B216" s="92" t="s">
+      <c r="B216" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C216" s="93"/>
-      <c r="D216" s="93"/>
-      <c r="E216" s="93"/>
-      <c r="F216" s="93"/>
-      <c r="G216" s="94"/>
+      <c r="C216" s="90"/>
+      <c r="D216" s="90"/>
+      <c r="E216" s="90"/>
+      <c r="F216" s="90"/>
+      <c r="G216" s="91"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="51" t="s">
@@ -10061,27 +10105,27 @@
       <c r="A224" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B224" s="86"/>
-      <c r="C224" s="87"/>
-      <c r="D224" s="87"/>
-      <c r="E224" s="87"/>
-      <c r="F224" s="87"/>
-      <c r="G224" s="88"/>
+      <c r="B224" s="92"/>
+      <c r="C224" s="93"/>
+      <c r="D224" s="93"/>
+      <c r="E224" s="93"/>
+      <c r="F224" s="93"/>
+      <c r="G224" s="94"/>
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B225" s="89" t="s">
+      <c r="B225" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C225" s="90" t="s">
+      <c r="C225" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="D225" s="90" t="s">
+      <c r="D225" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="E225" s="91" t="s">
+      <c r="E225" s="88" t="s">
         <v>193</v>
       </c>
       <c r="F225" s="48" t="s">
@@ -10096,14 +10140,14 @@
       <c r="A226" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B226" s="92" t="s">
+      <c r="B226" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C226" s="93"/>
-      <c r="D226" s="93"/>
-      <c r="E226" s="93"/>
-      <c r="F226" s="93"/>
-      <c r="G226" s="94"/>
+      <c r="C226" s="90"/>
+      <c r="D226" s="90"/>
+      <c r="E226" s="90"/>
+      <c r="F226" s="90"/>
+      <c r="G226" s="91"/>
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="51" t="s">
@@ -10198,27 +10242,27 @@
       <c r="A234" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B234" s="86"/>
-      <c r="C234" s="87"/>
-      <c r="D234" s="87"/>
-      <c r="E234" s="87"/>
-      <c r="F234" s="87"/>
-      <c r="G234" s="88"/>
+      <c r="B234" s="92"/>
+      <c r="C234" s="93"/>
+      <c r="D234" s="93"/>
+      <c r="E234" s="93"/>
+      <c r="F234" s="93"/>
+      <c r="G234" s="94"/>
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="89" t="s">
+      <c r="B235" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C235" s="90" t="s">
+      <c r="C235" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="D235" s="90" t="s">
+      <c r="D235" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E235" s="91" t="s">
+      <c r="E235" s="88" t="s">
         <v>179</v>
       </c>
       <c r="F235" s="48" t="s">
@@ -10233,14 +10277,14 @@
       <c r="A236" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B236" s="92" t="s">
+      <c r="B236" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C236" s="93"/>
-      <c r="D236" s="93"/>
-      <c r="E236" s="93"/>
-      <c r="F236" s="93"/>
-      <c r="G236" s="94"/>
+      <c r="C236" s="90"/>
+      <c r="D236" s="90"/>
+      <c r="E236" s="90"/>
+      <c r="F236" s="90"/>
+      <c r="G236" s="91"/>
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="51" t="s">
@@ -10337,27 +10381,27 @@
       <c r="A242" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B242" s="86"/>
-      <c r="C242" s="87"/>
-      <c r="D242" s="87"/>
-      <c r="E242" s="87"/>
-      <c r="F242" s="87"/>
-      <c r="G242" s="88"/>
+      <c r="B242" s="92"/>
+      <c r="C242" s="93"/>
+      <c r="D242" s="93"/>
+      <c r="E242" s="93"/>
+      <c r="F242" s="93"/>
+      <c r="G242" s="94"/>
     </row>
     <row r="243" spans="1:7">
       <c r="A243" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="B243" s="89" t="s">
+      <c r="B243" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="C243" s="90" t="s">
+      <c r="C243" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="D243" s="90" t="s">
+      <c r="D243" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="E243" s="91" t="s">
+      <c r="E243" s="88" t="s">
         <v>179</v>
       </c>
       <c r="F243" s="48" t="s">
@@ -10372,14 +10416,14 @@
       <c r="A244" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B244" s="92" t="s">
+      <c r="B244" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C244" s="93"/>
-      <c r="D244" s="93"/>
-      <c r="E244" s="93"/>
-      <c r="F244" s="93"/>
-      <c r="G244" s="94"/>
+      <c r="C244" s="90"/>
+      <c r="D244" s="90"/>
+      <c r="E244" s="90"/>
+      <c r="F244" s="90"/>
+      <c r="G244" s="91"/>
     </row>
     <row r="245" spans="1:7">
       <c r="A245" s="51" t="s">
@@ -10459,27 +10503,27 @@
       <c r="A249" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B249" s="86"/>
-      <c r="C249" s="87"/>
-      <c r="D249" s="87"/>
-      <c r="E249" s="87"/>
-      <c r="F249" s="87"/>
-      <c r="G249" s="88"/>
+      <c r="B249" s="92"/>
+      <c r="C249" s="93"/>
+      <c r="D249" s="93"/>
+      <c r="E249" s="93"/>
+      <c r="F249" s="93"/>
+      <c r="G249" s="94"/>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="B250" s="89" t="s">
+      <c r="B250" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C250" s="90" t="s">
+      <c r="C250" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="D250" s="90" t="s">
+      <c r="D250" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="E250" s="91" t="s">
+      <c r="E250" s="88" t="s">
         <v>192</v>
       </c>
       <c r="F250" s="48" t="s">
@@ -10494,14 +10538,14 @@
       <c r="A251" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B251" s="92" t="s">
+      <c r="B251" s="89" t="s">
         <v>209</v>
       </c>
-      <c r="C251" s="93"/>
-      <c r="D251" s="93"/>
-      <c r="E251" s="93"/>
-      <c r="F251" s="93"/>
-      <c r="G251" s="94"/>
+      <c r="C251" s="90"/>
+      <c r="D251" s="90"/>
+      <c r="E251" s="90"/>
+      <c r="F251" s="90"/>
+      <c r="G251" s="91"/>
     </row>
     <row r="252" spans="1:7">
       <c r="A252" s="51" t="s">
@@ -10581,27 +10625,27 @@
       <c r="A256" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B256" s="86"/>
-      <c r="C256" s="87"/>
-      <c r="D256" s="87"/>
-      <c r="E256" s="87"/>
-      <c r="F256" s="87"/>
-      <c r="G256" s="88"/>
+      <c r="B256" s="92"/>
+      <c r="C256" s="93"/>
+      <c r="D256" s="93"/>
+      <c r="E256" s="93"/>
+      <c r="F256" s="93"/>
+      <c r="G256" s="94"/>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="B257" s="89" t="s">
+      <c r="B257" s="86" t="s">
         <v>247</v>
       </c>
-      <c r="C257" s="90" t="s">
+      <c r="C257" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="D257" s="90" t="s">
+      <c r="D257" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="E257" s="91" t="s">
+      <c r="E257" s="88" t="s">
         <v>192</v>
       </c>
       <c r="F257" s="48" t="s">
@@ -10616,14 +10660,14 @@
       <c r="A258" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B258" s="92" t="s">
+      <c r="B258" s="89" t="s">
         <v>250</v>
       </c>
-      <c r="C258" s="93"/>
-      <c r="D258" s="93"/>
-      <c r="E258" s="93"/>
-      <c r="F258" s="93"/>
-      <c r="G258" s="94"/>
+      <c r="C258" s="90"/>
+      <c r="D258" s="90"/>
+      <c r="E258" s="90"/>
+      <c r="F258" s="90"/>
+      <c r="G258" s="91"/>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="51" t="s">
@@ -10720,27 +10764,27 @@
       <c r="A264" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B264" s="86"/>
-      <c r="C264" s="87"/>
-      <c r="D264" s="87"/>
-      <c r="E264" s="87"/>
-      <c r="F264" s="87"/>
-      <c r="G264" s="88"/>
+      <c r="B264" s="92"/>
+      <c r="C264" s="93"/>
+      <c r="D264" s="93"/>
+      <c r="E264" s="93"/>
+      <c r="F264" s="93"/>
+      <c r="G264" s="94"/>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="B265" s="89" t="s">
+      <c r="B265" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="C265" s="90" t="s">
+      <c r="C265" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="D265" s="90" t="s">
+      <c r="D265" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="E265" s="91" t="s">
+      <c r="E265" s="88" t="s">
         <v>192</v>
       </c>
       <c r="F265" s="48" t="s">
@@ -10755,14 +10799,14 @@
       <c r="A266" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="B266" s="92" t="s">
+      <c r="B266" s="89" t="s">
         <v>259</v>
       </c>
-      <c r="C266" s="93"/>
-      <c r="D266" s="93"/>
-      <c r="E266" s="93"/>
-      <c r="F266" s="93"/>
-      <c r="G266" s="94"/>
+      <c r="C266" s="90"/>
+      <c r="D266" s="90"/>
+      <c r="E266" s="90"/>
+      <c r="F266" s="90"/>
+      <c r="G266" s="91"/>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="51" t="s">
@@ -10859,84 +10903,153 @@
       <c r="A272" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B272" s="86"/>
-      <c r="C272" s="87"/>
-      <c r="D272" s="87"/>
-      <c r="E272" s="87"/>
-      <c r="F272" s="87"/>
-      <c r="G272" s="88"/>
+      <c r="B272" s="92"/>
+      <c r="C272" s="93"/>
+      <c r="D272" s="93"/>
+      <c r="E272" s="93"/>
+      <c r="F272" s="93"/>
+      <c r="G272" s="94"/>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273"/>
-      <c r="B273"/>
-      <c r="C273"/>
-      <c r="D273"/>
-      <c r="E273"/>
-      <c r="F273"/>
-      <c r="G273"/>
+      <c r="A273" s="47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B273" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="C273" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="D273" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="E273" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="F273" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G273" s="49" t="str">
+        <f>IF(COUNTIF(F276:F279,"Blocked")&gt;0,"Blocked",IF(COUNTIF(F276:F279,"Fail")&gt;0,"Fail",IF(COUNTIF(F276:F279,"")=0,"Pass","Not Executed")))</f>
+        <v>Pass</v>
+      </c>
     </row>
     <row r="274" spans="1:7">
-      <c r="A274"/>
-      <c r="B274"/>
-      <c r="C274"/>
-      <c r="D274"/>
-      <c r="E274"/>
-      <c r="F274"/>
-      <c r="G274"/>
+      <c r="A274" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B274" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C274" s="90"/>
+      <c r="D274" s="90"/>
+      <c r="E274" s="90"/>
+      <c r="F274" s="90"/>
+      <c r="G274" s="91"/>
     </row>
     <row r="275" spans="1:7">
-      <c r="A275"/>
-      <c r="B275"/>
-      <c r="C275"/>
-      <c r="D275"/>
-      <c r="E275"/>
-      <c r="F275"/>
-      <c r="G275"/>
-    </row>
-    <row r="276" spans="1:7">
-      <c r="A276"/>
-      <c r="B276"/>
-      <c r="C276"/>
-      <c r="D276"/>
-      <c r="E276"/>
-      <c r="F276"/>
-      <c r="G276"/>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277"/>
-      <c r="B277"/>
-      <c r="C277"/>
-      <c r="D277"/>
-      <c r="E277"/>
-      <c r="F277"/>
-      <c r="G277"/>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278"/>
-      <c r="B278"/>
-      <c r="C278"/>
-      <c r="D278"/>
-      <c r="E278"/>
-      <c r="F278"/>
-      <c r="G278"/>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279"/>
-      <c r="B279"/>
-      <c r="C279"/>
-      <c r="D279"/>
-      <c r="E279"/>
-      <c r="F279"/>
-      <c r="G279"/>
+      <c r="A275" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B275" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C275" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D275" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E275" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F275" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G275" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="150">
+      <c r="A276" s="52">
+        <v>1</v>
+      </c>
+      <c r="B276" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C276" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="D276" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="E276" s="54"/>
+      <c r="F276" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G276" s="56"/>
+    </row>
+    <row r="277" spans="1:7" ht="30">
+      <c r="A277" s="52">
+        <v>2</v>
+      </c>
+      <c r="B277" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="C277" s="54" t="s">
+        <v>270</v>
+      </c>
+      <c r="D277" s="54"/>
+      <c r="E277" s="54"/>
+      <c r="F277" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G277" s="56"/>
+    </row>
+    <row r="278" spans="1:7" ht="45">
+      <c r="A278" s="52">
+        <v>3</v>
+      </c>
+      <c r="B278" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="C278" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="D278" s="54"/>
+      <c r="E278" s="54"/>
+      <c r="F278" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G278" s="56"/>
+    </row>
+    <row r="279" spans="1:7" ht="75">
+      <c r="A279" s="52">
+        <v>4</v>
+      </c>
+      <c r="B279" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="C279" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="D279" s="54"/>
+      <c r="E279" s="54"/>
+      <c r="F279" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="G279" s="56"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280"/>
-      <c r="B280"/>
-      <c r="C280"/>
-      <c r="D280"/>
-      <c r="E280"/>
-      <c r="F280"/>
-      <c r="G280"/>
+      <c r="A280" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B280" s="92"/>
+      <c r="C280" s="93"/>
+      <c r="D280" s="93"/>
+      <c r="E280" s="93"/>
+      <c r="F280" s="93"/>
+      <c r="G280" s="94"/>
     </row>
     <row r="281" spans="1:7">
       <c r="A281"/>
@@ -17128,7 +17241,7 @@
       <c r="H968" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="91">
     <mergeCell ref="B250:E250"/>
     <mergeCell ref="B251:G251"/>
     <mergeCell ref="B256:G256"/>
@@ -17211,6 +17324,9 @@
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B273:E273"/>
+    <mergeCell ref="B274:G274"/>
+    <mergeCell ref="B280:G280"/>
     <mergeCell ref="B272:G272"/>
     <mergeCell ref="B257:E257"/>
     <mergeCell ref="B258:G258"/>
@@ -17219,7 +17335,7 @@
     <mergeCell ref="B266:G266"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F451:F453 F458:F464 F677:F679 F667:F672 F469:F478 F483:F486 F491:F496 F501:F509 F514:F523 F528:F538 F543:F553 F569:F575 F597:F599 F558:F564 F580:F586 F591:F592 F604:F610 F615:F621 F637:F639 F626:F632 F644:F647 F652:F654 F659:F662 F21:F23 F152:F157 F28:F36 F41:F45 F50:F54 F77:F82 F96:F98 F103:F109 F114:F122 F127:F135 F140:F147 F59:F64 F69:F72 F87:F91 F162:F166 F171:F172 F177:F180 F185:F188 F193:F196 F201:F205 F210:F213 F218:F223 F228:F233 F238:F241 F246:F248 F253:F255 F260:F263 F268:F271" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" promptTitle="Valid values include:" prompt="_x000a_" sqref="F451:F453 F458:F464 F677:F679 F667:F672 F469:F478 F483:F486 F491:F496 F501:F509 F514:F523 F528:F538 F543:F553 F569:F575 F597:F599 F558:F564 F580:F586 F591:F592 F604:F610 F615:F621 F637:F639 F626:F632 F644:F647 F652:F654 F659:F662 F21:F23 F152:F157 F28:F36 F41:F45 F50:F54 F77:F82 F96:F98 F103:F109 F114:F122 F127:F135 F140:F147 F59:F64 F69:F72 F87:F91 F162:F166 F171:F172 F177:F180 F185:F188 F193:F196 F201:F205 F210:F213 F218:F223 F228:F233 F238:F241 F246:F248 F253:F255 F260:F263 F268:F271 F276:F279" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
   </dataValidations>
